--- a/accountrelatedlink.xlsx
+++ b/accountrelatedlink.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="574">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="474">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -1436,306 +1436,6 @@
   </x:si>
   <x:si>
     <x:t>User should be able to validate the Apt_UK__TaxClassification__c is deleted</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reassign Approve/Reject Case</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the Case tab</x:t>
-  </x:si>
-  <x:si>
-    <x:t>From the list of the  Cases displayed, select the appropriate Case.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the Case details page.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Scroll down the Case page to locate the 'Approval History' section.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to view the pending Approve/Reject requests listed.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>To Reassign the record's request, Click on the 'Reassign' link.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the 'Reassign Approval Request' Page.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In the 'Reassign Approval Request' section input the appropriate Approver in the 'Approver' field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input the appropriate Approver.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In the 'Reassign Approval Request' section, input Comments if required.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input appropriate comments.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on 'Reassign Approval Request' button.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate the changes are saved and they are navigated to the Case details Page.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate the name in the 'Assigned To' field matches the name that was updated in 'Step 5'.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Approve/Reject Case</x:t>
-  </x:si>
-  <x:si>
-    <x:t>To Approve/Reject the record's request, Click on 'Approve/Reject' link.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the Approval Request, Account:(Approver Name) Page.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In the 'Approve/Reject Approval Request' section, input comments if required.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the 'Approve' or the 'Reject' button to either Approve or Reject the request.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to either 'Approve' or 'Reject' the request.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>On performing either 'Approval' or 'Rejection' action, user is navigated to the Case request page.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to view the request is either 'Approved' or 'Rejected'.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Approve/Reject through e-mail link</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The e-mail should contain a link to Approve/Reject the request.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Validate if the user has received an e-mail notification for Approve/Reject.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should have received an e-mail to Approve/Reject the request.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>To access this page, you have to log in to Salesforce.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the link provided in the e-mail.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the Approval Request Page.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Under the 'Approve/Reject Approval Request' section, input comments if necessary.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input the comments.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Approve/Reject through e-mail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The approver should receive an e-mail to Approve/Reject the request.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on 'Reply All' option to respond to the request.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to reply all through the e-mail chain.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>To Approve/Reject the request reply e-mail with one of these words: APPROVE, APPROVED, YES, REJECT, REJECTED, NO.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to reply the email message: APPROVE, APPROVED, YES,REJECT, REJECTED, NO.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Navigate to the  Case page on Salesforce.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Verify Automatically Assign Users/Queues Case</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Navigate to the Cases Page.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the Case Page.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>From the list of recent Cases displayed, select the appropriate Case.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Validate if the RecordTypeId is set to equals Written Complaint .</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate the RecordTypeId is set to equals Written Complaint .</x:t>
-  </x:si>
-  <x:si>
-    <x:t>On the Case Details page, validate the Case Owner.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate the Lead Owner is Queue:Customer_Relations .</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Escalation Rule Validation Case</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User is navigated to the Case Home page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Validate if the user is able to locate the Case number</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User Should be able to locate the Case number</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the Case Number</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User is navigated to the Case number details page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the Details tab</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User navigated to the Case details page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Scroll down to locate Case History section</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User able to validate the escalation details Related to Case</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Apt_UK__BillingContract__c-Update Billing Contract No</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the Apt_UK__BillingContract__c tab</x:t>
-  </x:si>
-  <x:si>
-    <x:t>From the list of the  Apt_UK__BillingContract__cs displayed, select the appropriate Apt_UK__BillingContract__c.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the Apt_UK__BillingContract__c details page.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Verify Apt_UK__BillingContract__c update with new value.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Updated Apt_UK__BillingContract__c details should be verified.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the Apt_UK__LocationOccupant__c tab</x:t>
-  </x:si>
-  <x:si>
-    <x:t>From the list of the  Apt_UK__LocationOccupant__cs displayed, select the appropriate Apt_UK__LocationOccupant__c.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the Apt_UK__LocationOccupant__c details page.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Verify Apt_UK__LocationOccupant__c update with new value.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Updated Apt_UK__LocationOccupant__c details should be verified.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Apt_UK__LocationOccupant__c-Activate Future Location Occupant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Apt_UK__LocationOccupant__c-Active Location Occupant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Apt_UK__LocationOccupant__c-Apt_UK__Active Location Occupant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Apt_UK__LocationOccupant__c-Apt_UK__Inactive Location Occupant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Apt_UK__LocationOccupant__c-Deactivate Future Location Occupant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Apt_UK__LocationOccupant__c-Inactive Location Occupant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Verify Case update with new value.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Updated Case details should be verified.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Case-Acknowledged Time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Case-Apt_UK__Case In Progress Time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Case-Assign to Customer Relations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Case-Assign to Developer Services Queue</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Case-Assign to Metering Queue</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Case-Assign to Queue</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Case-Assigned to Owner Time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Case-Assigned to Queue Time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Case-Case to Queue</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Case-Escalated Time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Case-Follow-Up Time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Case-Investigating TIme</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Case-Meter Installation - Passed to Retail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Case-Responded Time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the Apt_UK__Payment__c tab</x:t>
-  </x:si>
-  <x:si>
-    <x:t>From the list of the  Apt_UK__Payment__cs displayed, select the appropriate Apt_UK__Payment__c.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the Apt_UK__Payment__c details page.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Verify Apt_UK__Payment__c update with new value.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Updated Apt_UK__Payment__c details should be verified.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_57</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_57.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Apt_UK__Payment__c-Apt_UK__Invalidate Suspense Payment</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1819,8 +1519,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J368" totalsRowShown="0">
-  <x:autoFilter ref="A1:J368"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J179" totalsRowShown="0">
+  <x:autoFilter ref="A1:J179"/>
   <x:tableColumns count="10">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -2125,7 +1825,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J368"/>
+  <x:dimension ref="A1:J179"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2133,7 +1833,7 @@
   <x:cols>
     <x:col min="1" max="1" width="17.130625000000002" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="62.550625000000004" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="39.700625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="189.840625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
@@ -5931,3866 +5631,6 @@
       <x:c r="I179" s="0" t="s"/>
       <x:c r="J179" s="0" t="s"/>
     </x:row>
-    <x:row r="180" spans="1:10">
-      <x:c r="A180" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B180" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C180" s="0" t="s">
-        <x:v>474</x:v>
-      </x:c>
-      <x:c r="D180" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E180" s="0" t="s"/>
-      <x:c r="F180" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G180" s="0" t="s">
-        <x:v>475</x:v>
-      </x:c>
-      <x:c r="H180" s="0" t="s">
-        <x:v>170</x:v>
-      </x:c>
-      <x:c r="I180" s="0" t="s"/>
-      <x:c r="J180" s="0" t="s"/>
-    </x:row>
-    <x:row r="181" spans="1:10">
-      <x:c r="A181" s="0" t="s"/>
-      <x:c r="B181" s="0" t="s"/>
-      <x:c r="C181" s="0" t="s"/>
-      <x:c r="D181" s="0" t="s"/>
-      <x:c r="E181" s="0" t="s"/>
-      <x:c r="F181" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G181" s="0" t="s">
-        <x:v>476</x:v>
-      </x:c>
-      <x:c r="H181" s="0" t="s">
-        <x:v>477</x:v>
-      </x:c>
-      <x:c r="I181" s="0" t="s"/>
-      <x:c r="J181" s="0" t="s"/>
-    </x:row>
-    <x:row r="182" spans="1:10">
-      <x:c r="A182" s="0" t="s"/>
-      <x:c r="B182" s="0" t="s"/>
-      <x:c r="C182" s="0" t="s"/>
-      <x:c r="D182" s="0" t="s"/>
-      <x:c r="E182" s="0" t="s"/>
-      <x:c r="F182" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G182" s="0" t="s">
-        <x:v>478</x:v>
-      </x:c>
-      <x:c r="H182" s="0" t="s">
-        <x:v>479</x:v>
-      </x:c>
-      <x:c r="I182" s="0" t="s"/>
-      <x:c r="J182" s="0" t="s"/>
-    </x:row>
-    <x:row r="183" spans="1:10">
-      <x:c r="A183" s="0" t="s"/>
-      <x:c r="B183" s="0" t="s"/>
-      <x:c r="C183" s="0" t="s"/>
-      <x:c r="D183" s="0" t="s"/>
-      <x:c r="E183" s="0" t="s"/>
-      <x:c r="F183" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="G183" s="0" t="s">
-        <x:v>480</x:v>
-      </x:c>
-      <x:c r="H183" s="0" t="s">
-        <x:v>481</x:v>
-      </x:c>
-      <x:c r="I183" s="0" t="s"/>
-      <x:c r="J183" s="0" t="s"/>
-    </x:row>
-    <x:row r="184" spans="1:10">
-      <x:c r="A184" s="0" t="s"/>
-      <x:c r="B184" s="0" t="s"/>
-      <x:c r="C184" s="0" t="s"/>
-      <x:c r="D184" s="0" t="s"/>
-      <x:c r="E184" s="0" t="s"/>
-      <x:c r="F184" s="0" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="G184" s="0" t="s">
-        <x:v>482</x:v>
-      </x:c>
-      <x:c r="H184" s="0" t="s">
-        <x:v>483</x:v>
-      </x:c>
-      <x:c r="I184" s="0" t="s"/>
-      <x:c r="J184" s="0" t="s"/>
-    </x:row>
-    <x:row r="185" spans="1:10">
-      <x:c r="A185" s="0" t="s"/>
-      <x:c r="B185" s="0" t="s"/>
-      <x:c r="C185" s="0" t="s"/>
-      <x:c r="D185" s="0" t="s"/>
-      <x:c r="E185" s="0" t="s"/>
-      <x:c r="F185" s="0" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="G185" s="0" t="s">
-        <x:v>484</x:v>
-      </x:c>
-      <x:c r="H185" s="0" t="s">
-        <x:v>485</x:v>
-      </x:c>
-      <x:c r="I185" s="0" t="s"/>
-      <x:c r="J185" s="0" t="s"/>
-    </x:row>
-    <x:row r="186" spans="1:10">
-      <x:c r="A186" s="0" t="s"/>
-      <x:c r="B186" s="0" t="s"/>
-      <x:c r="C186" s="0" t="s"/>
-      <x:c r="D186" s="0" t="s"/>
-      <x:c r="E186" s="0" t="s"/>
-      <x:c r="F186" s="0" t="s">
-        <x:v>486</x:v>
-      </x:c>
-      <x:c r="G186" s="0" t="s">
-        <x:v>487</x:v>
-      </x:c>
-      <x:c r="H186" s="0" t="s">
-        <x:v>488</x:v>
-      </x:c>
-      <x:c r="I186" s="0" t="s"/>
-      <x:c r="J186" s="0" t="s"/>
-    </x:row>
-    <x:row r="187" spans="1:10">
-      <x:c r="A187" s="0" t="s"/>
-      <x:c r="B187" s="0" t="s"/>
-      <x:c r="C187" s="0" t="s"/>
-      <x:c r="D187" s="0" t="s"/>
-      <x:c r="E187" s="0" t="s"/>
-      <x:c r="F187" s="0" t="s">
-        <x:v>489</x:v>
-      </x:c>
-      <x:c r="G187" s="0" t="s">
-        <x:v>478</x:v>
-      </x:c>
-      <x:c r="H187" s="0" t="s">
-        <x:v>490</x:v>
-      </x:c>
-      <x:c r="I187" s="0" t="s"/>
-      <x:c r="J187" s="0" t="s"/>
-    </x:row>
-    <x:row r="188" spans="1:10">
-      <x:c r="A188" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="B188" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C188" s="0" t="s">
-        <x:v>491</x:v>
-      </x:c>
-      <x:c r="D188" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E188" s="0" t="s"/>
-      <x:c r="F188" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G188" s="0" t="s">
-        <x:v>475</x:v>
-      </x:c>
-      <x:c r="H188" s="0" t="s">
-        <x:v>170</x:v>
-      </x:c>
-      <x:c r="I188" s="0" t="s"/>
-      <x:c r="J188" s="0" t="s"/>
-    </x:row>
-    <x:row r="189" spans="1:10">
-      <x:c r="A189" s="0" t="s"/>
-      <x:c r="B189" s="0" t="s"/>
-      <x:c r="C189" s="0" t="s"/>
-      <x:c r="D189" s="0" t="s"/>
-      <x:c r="E189" s="0" t="s"/>
-      <x:c r="F189" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G189" s="0" t="s">
-        <x:v>476</x:v>
-      </x:c>
-      <x:c r="H189" s="0" t="s">
-        <x:v>477</x:v>
-      </x:c>
-      <x:c r="I189" s="0" t="s"/>
-      <x:c r="J189" s="0" t="s"/>
-    </x:row>
-    <x:row r="190" spans="1:10">
-      <x:c r="A190" s="0" t="s"/>
-      <x:c r="B190" s="0" t="s"/>
-      <x:c r="C190" s="0" t="s"/>
-      <x:c r="D190" s="0" t="s"/>
-      <x:c r="E190" s="0" t="s"/>
-      <x:c r="F190" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G190" s="0" t="s">
-        <x:v>478</x:v>
-      </x:c>
-      <x:c r="H190" s="0" t="s">
-        <x:v>479</x:v>
-      </x:c>
-      <x:c r="I190" s="0" t="s"/>
-      <x:c r="J190" s="0" t="s"/>
-    </x:row>
-    <x:row r="191" spans="1:10">
-      <x:c r="A191" s="0" t="s"/>
-      <x:c r="B191" s="0" t="s"/>
-      <x:c r="C191" s="0" t="s"/>
-      <x:c r="D191" s="0" t="s"/>
-      <x:c r="E191" s="0" t="s"/>
-      <x:c r="F191" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="G191" s="0" t="s">
-        <x:v>492</x:v>
-      </x:c>
-      <x:c r="H191" s="0" t="s">
-        <x:v>493</x:v>
-      </x:c>
-      <x:c r="I191" s="0" t="s"/>
-      <x:c r="J191" s="0" t="s"/>
-    </x:row>
-    <x:row r="192" spans="1:10">
-      <x:c r="A192" s="0" t="s"/>
-      <x:c r="B192" s="0" t="s"/>
-      <x:c r="C192" s="0" t="s"/>
-      <x:c r="D192" s="0" t="s"/>
-      <x:c r="E192" s="0" t="s"/>
-      <x:c r="F192" s="0" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="G192" s="0" t="s">
-        <x:v>494</x:v>
-      </x:c>
-      <x:c r="H192" s="0" t="s">
-        <x:v>485</x:v>
-      </x:c>
-      <x:c r="I192" s="0" t="s"/>
-      <x:c r="J192" s="0" t="s"/>
-    </x:row>
-    <x:row r="193" spans="1:10">
-      <x:c r="A193" s="0" t="s"/>
-      <x:c r="B193" s="0" t="s"/>
-      <x:c r="C193" s="0" t="s"/>
-      <x:c r="D193" s="0" t="s"/>
-      <x:c r="E193" s="0" t="s"/>
-      <x:c r="F193" s="0" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="G193" s="0" t="s">
-        <x:v>495</x:v>
-      </x:c>
-      <x:c r="H193" s="0" t="s">
-        <x:v>496</x:v>
-      </x:c>
-      <x:c r="I193" s="0" t="s"/>
-      <x:c r="J193" s="0" t="s"/>
-    </x:row>
-    <x:row r="194" spans="1:10">
-      <x:c r="A194" s="0" t="s"/>
-      <x:c r="B194" s="0" t="s"/>
-      <x:c r="C194" s="0" t="s"/>
-      <x:c r="D194" s="0" t="s"/>
-      <x:c r="E194" s="0" t="s"/>
-      <x:c r="F194" s="0" t="s">
-        <x:v>486</x:v>
-      </x:c>
-      <x:c r="G194" s="0" t="s">
-        <x:v>497</x:v>
-      </x:c>
-      <x:c r="H194" s="0" t="s">
-        <x:v>477</x:v>
-      </x:c>
-      <x:c r="I194" s="0" t="s"/>
-      <x:c r="J194" s="0" t="s"/>
-    </x:row>
-    <x:row r="195" spans="1:10">
-      <x:c r="A195" s="0" t="s"/>
-      <x:c r="B195" s="0" t="s"/>
-      <x:c r="C195" s="0" t="s"/>
-      <x:c r="D195" s="0" t="s"/>
-      <x:c r="E195" s="0" t="s"/>
-      <x:c r="F195" s="0" t="s">
-        <x:v>489</x:v>
-      </x:c>
-      <x:c r="G195" s="0" t="s">
-        <x:v>478</x:v>
-      </x:c>
-      <x:c r="H195" s="0" t="s">
-        <x:v>498</x:v>
-      </x:c>
-      <x:c r="I195" s="0" t="s"/>
-      <x:c r="J195" s="0" t="s"/>
-    </x:row>
-    <x:row r="196" spans="1:10">
-      <x:c r="A196" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="B196" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C196" s="0" t="s">
-        <x:v>499</x:v>
-      </x:c>
-      <x:c r="D196" s="0" t="s">
-        <x:v>500</x:v>
-      </x:c>
-      <x:c r="E196" s="0" t="s"/>
-      <x:c r="F196" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G196" s="0" t="s">
-        <x:v>501</x:v>
-      </x:c>
-      <x:c r="H196" s="0" t="s">
-        <x:v>502</x:v>
-      </x:c>
-      <x:c r="I196" s="0" t="s"/>
-      <x:c r="J196" s="0" t="s"/>
-    </x:row>
-    <x:row r="197" spans="1:10">
-      <x:c r="A197" s="0" t="s"/>
-      <x:c r="B197" s="0" t="s"/>
-      <x:c r="C197" s="0" t="s"/>
-      <x:c r="D197" s="0" t="s">
-        <x:v>503</x:v>
-      </x:c>
-      <x:c r="E197" s="0" t="s"/>
-      <x:c r="F197" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G197" s="0" t="s">
-        <x:v>504</x:v>
-      </x:c>
-      <x:c r="H197" s="0" t="s">
-        <x:v>505</x:v>
-      </x:c>
-      <x:c r="I197" s="0" t="s"/>
-      <x:c r="J197" s="0" t="s"/>
-    </x:row>
-    <x:row r="198" spans="1:10">
-      <x:c r="A198" s="0" t="s"/>
-      <x:c r="B198" s="0" t="s"/>
-      <x:c r="C198" s="0" t="s"/>
-      <x:c r="D198" s="0" t="s"/>
-      <x:c r="E198" s="0" t="s"/>
-      <x:c r="F198" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G198" s="0" t="s">
-        <x:v>506</x:v>
-      </x:c>
-      <x:c r="H198" s="0" t="s">
-        <x:v>507</x:v>
-      </x:c>
-      <x:c r="I198" s="0" t="s"/>
-      <x:c r="J198" s="0" t="s"/>
-    </x:row>
-    <x:row r="199" spans="1:10">
-      <x:c r="A199" s="0" t="s"/>
-      <x:c r="B199" s="0" t="s"/>
-      <x:c r="C199" s="0" t="s"/>
-      <x:c r="D199" s="0" t="s"/>
-      <x:c r="E199" s="0" t="s"/>
-      <x:c r="F199" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="G199" s="0" t="s">
-        <x:v>495</x:v>
-      </x:c>
-      <x:c r="H199" s="0" t="s">
-        <x:v>496</x:v>
-      </x:c>
-      <x:c r="I199" s="0" t="s"/>
-      <x:c r="J199" s="0" t="s"/>
-    </x:row>
-    <x:row r="200" spans="1:10">
-      <x:c r="A200" s="0" t="s"/>
-      <x:c r="B200" s="0" t="s"/>
-      <x:c r="C200" s="0" t="s"/>
-      <x:c r="D200" s="0" t="s"/>
-      <x:c r="E200" s="0" t="s"/>
-      <x:c r="F200" s="0" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="G200" s="0" t="s">
-        <x:v>497</x:v>
-      </x:c>
-      <x:c r="H200" s="0" t="s">
-        <x:v>477</x:v>
-      </x:c>
-      <x:c r="I200" s="0" t="s"/>
-      <x:c r="J200" s="0" t="s"/>
-    </x:row>
-    <x:row r="201" spans="1:10">
-      <x:c r="A201" s="0" t="s"/>
-      <x:c r="B201" s="0" t="s"/>
-      <x:c r="C201" s="0" t="s"/>
-      <x:c r="D201" s="0" t="s"/>
-      <x:c r="E201" s="0" t="s"/>
-      <x:c r="F201" s="0" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="G201" s="0" t="s">
-        <x:v>478</x:v>
-      </x:c>
-      <x:c r="H201" s="0" t="s">
-        <x:v>498</x:v>
-      </x:c>
-      <x:c r="I201" s="0" t="s"/>
-      <x:c r="J201" s="0" t="s"/>
-    </x:row>
-    <x:row r="202" spans="1:10">
-      <x:c r="A202" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="B202" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="C202" s="0" t="s">
-        <x:v>508</x:v>
-      </x:c>
-      <x:c r="D202" s="0" t="s">
-        <x:v>509</x:v>
-      </x:c>
-      <x:c r="E202" s="0" t="s"/>
-      <x:c r="F202" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G202" s="0" t="s">
-        <x:v>501</x:v>
-      </x:c>
-      <x:c r="H202" s="0" t="s">
-        <x:v>502</x:v>
-      </x:c>
-      <x:c r="I202" s="0" t="s"/>
-      <x:c r="J202" s="0" t="s"/>
-    </x:row>
-    <x:row r="203" spans="1:10">
-      <x:c r="A203" s="0" t="s"/>
-      <x:c r="B203" s="0" t="s"/>
-      <x:c r="C203" s="0" t="s"/>
-      <x:c r="D203" s="0" t="s"/>
-      <x:c r="E203" s="0" t="s"/>
-      <x:c r="F203" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G203" s="0" t="s">
-        <x:v>510</x:v>
-      </x:c>
-      <x:c r="H203" s="0" t="s">
-        <x:v>511</x:v>
-      </x:c>
-      <x:c r="I203" s="0" t="s"/>
-      <x:c r="J203" s="0" t="s"/>
-    </x:row>
-    <x:row r="204" spans="1:10">
-      <x:c r="A204" s="0" t="s"/>
-      <x:c r="B204" s="0" t="s"/>
-      <x:c r="C204" s="0" t="s"/>
-      <x:c r="D204" s="0" t="s"/>
-      <x:c r="E204" s="0" t="s"/>
-      <x:c r="F204" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G204" s="0" t="s">
-        <x:v>512</x:v>
-      </x:c>
-      <x:c r="H204" s="0" t="s">
-        <x:v>513</x:v>
-      </x:c>
-      <x:c r="I204" s="0" t="s"/>
-      <x:c r="J204" s="0" t="s"/>
-    </x:row>
-    <x:row r="205" spans="1:10">
-      <x:c r="A205" s="0" t="s"/>
-      <x:c r="B205" s="0" t="s"/>
-      <x:c r="C205" s="0" t="s"/>
-      <x:c r="D205" s="0" t="s"/>
-      <x:c r="E205" s="0" t="s"/>
-      <x:c r="F205" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="G205" s="0" t="s">
-        <x:v>514</x:v>
-      </x:c>
-      <x:c r="H205" s="0" t="s">
-        <x:v>477</x:v>
-      </x:c>
-      <x:c r="I205" s="0" t="s"/>
-      <x:c r="J205" s="0" t="s"/>
-    </x:row>
-    <x:row r="206" spans="1:10">
-      <x:c r="A206" s="0" t="s"/>
-      <x:c r="B206" s="0" t="s"/>
-      <x:c r="C206" s="0" t="s"/>
-      <x:c r="D206" s="0" t="s"/>
-      <x:c r="E206" s="0" t="s"/>
-      <x:c r="F206" s="0" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="G206" s="0" t="s">
-        <x:v>478</x:v>
-      </x:c>
-      <x:c r="H206" s="0" t="s">
-        <x:v>498</x:v>
-      </x:c>
-      <x:c r="I206" s="0" t="s"/>
-      <x:c r="J206" s="0" t="s"/>
-    </x:row>
-    <x:row r="207" spans="1:10">
-      <x:c r="A207" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="B207" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="C207" s="0" t="s">
-        <x:v>515</x:v>
-      </x:c>
-      <x:c r="D207" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E207" s="0" t="s"/>
-      <x:c r="F207" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G207" s="0" t="s">
-        <x:v>516</x:v>
-      </x:c>
-      <x:c r="H207" s="0" t="s">
-        <x:v>517</x:v>
-      </x:c>
-      <x:c r="I207" s="0" t="s"/>
-      <x:c r="J207" s="0" t="s"/>
-    </x:row>
-    <x:row r="208" spans="1:10">
-      <x:c r="A208" s="0" t="s"/>
-      <x:c r="B208" s="0" t="s"/>
-      <x:c r="C208" s="0" t="s"/>
-      <x:c r="D208" s="0" t="s"/>
-      <x:c r="E208" s="0" t="s"/>
-      <x:c r="F208" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G208" s="0" t="s">
-        <x:v>518</x:v>
-      </x:c>
-      <x:c r="H208" s="0" t="s">
-        <x:v>477</x:v>
-      </x:c>
-      <x:c r="I208" s="0" t="s"/>
-      <x:c r="J208" s="0" t="s"/>
-    </x:row>
-    <x:row r="209" spans="1:10">
-      <x:c r="A209" s="0" t="s"/>
-      <x:c r="B209" s="0" t="s"/>
-      <x:c r="C209" s="0" t="s"/>
-      <x:c r="D209" s="0" t="s"/>
-      <x:c r="E209" s="0" t="s"/>
-      <x:c r="F209" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G209" s="0" t="s">
-        <x:v>519</x:v>
-      </x:c>
-      <x:c r="H209" s="0" t="s">
-        <x:v>520</x:v>
-      </x:c>
-      <x:c r="I209" s="0" t="s"/>
-      <x:c r="J209" s="0" t="s"/>
-    </x:row>
-    <x:row r="210" spans="1:10">
-      <x:c r="A210" s="0" t="s"/>
-      <x:c r="B210" s="0" t="s"/>
-      <x:c r="C210" s="0" t="s"/>
-      <x:c r="D210" s="0" t="s"/>
-      <x:c r="E210" s="0" t="s"/>
-      <x:c r="F210" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="G210" s="0" t="s">
-        <x:v>521</x:v>
-      </x:c>
-      <x:c r="H210" s="0" t="s">
-        <x:v>522</x:v>
-      </x:c>
-      <x:c r="I210" s="0" t="s"/>
-      <x:c r="J210" s="0" t="s"/>
-    </x:row>
-    <x:row r="211" spans="1:10">
-      <x:c r="A211" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="B211" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="C211" s="0" t="s">
-        <x:v>523</x:v>
-      </x:c>
-      <x:c r="D211" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E211" s="0" t="s"/>
-      <x:c r="F211" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G211" s="0" t="s">
-        <x:v>475</x:v>
-      </x:c>
-      <x:c r="H211" s="0" t="s">
-        <x:v>524</x:v>
-      </x:c>
-      <x:c r="I211" s="0" t="s"/>
-      <x:c r="J211" s="0" t="s"/>
-    </x:row>
-    <x:row r="212" spans="1:10">
-      <x:c r="A212" s="0" t="s"/>
-      <x:c r="B212" s="0" t="s"/>
-      <x:c r="C212" s="0" t="s"/>
-      <x:c r="D212" s="0" t="s"/>
-      <x:c r="E212" s="0" t="s"/>
-      <x:c r="F212" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G212" s="0" t="s">
-        <x:v>525</x:v>
-      </x:c>
-      <x:c r="H212" s="0" t="s">
-        <x:v>526</x:v>
-      </x:c>
-      <x:c r="I212" s="0" t="s"/>
-      <x:c r="J212" s="0" t="s"/>
-    </x:row>
-    <x:row r="213" spans="1:10">
-      <x:c r="A213" s="0" t="s"/>
-      <x:c r="B213" s="0" t="s"/>
-      <x:c r="C213" s="0" t="s"/>
-      <x:c r="D213" s="0" t="s"/>
-      <x:c r="E213" s="0" t="s"/>
-      <x:c r="F213" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G213" s="0" t="s">
-        <x:v>527</x:v>
-      </x:c>
-      <x:c r="H213" s="0" t="s">
-        <x:v>528</x:v>
-      </x:c>
-      <x:c r="I213" s="0" t="s"/>
-      <x:c r="J213" s="0" t="s"/>
-    </x:row>
-    <x:row r="214" spans="1:10">
-      <x:c r="A214" s="0" t="s"/>
-      <x:c r="B214" s="0" t="s"/>
-      <x:c r="C214" s="0" t="s"/>
-      <x:c r="D214" s="0" t="s"/>
-      <x:c r="E214" s="0" t="s"/>
-      <x:c r="F214" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="G214" s="0" t="s">
-        <x:v>529</x:v>
-      </x:c>
-      <x:c r="H214" s="0" t="s">
-        <x:v>530</x:v>
-      </x:c>
-      <x:c r="I214" s="0" t="s"/>
-      <x:c r="J214" s="0" t="s"/>
-    </x:row>
-    <x:row r="215" spans="1:10">
-      <x:c r="A215" s="0" t="s"/>
-      <x:c r="B215" s="0" t="s"/>
-      <x:c r="C215" s="0" t="s"/>
-      <x:c r="D215" s="0" t="s"/>
-      <x:c r="E215" s="0" t="s"/>
-      <x:c r="F215" s="0" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="G215" s="0" t="s">
-        <x:v>531</x:v>
-      </x:c>
-      <x:c r="H215" s="0" t="s">
-        <x:v>532</x:v>
-      </x:c>
-      <x:c r="I215" s="0" t="s"/>
-      <x:c r="J215" s="0" t="s"/>
-    </x:row>
-    <x:row r="216" spans="1:10">
-      <x:c r="A216" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="B216" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="C216" s="0" t="s">
-        <x:v>533</x:v>
-      </x:c>
-      <x:c r="D216" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E216" s="0" t="s"/>
-      <x:c r="F216" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G216" s="0" t="s">
-        <x:v>534</x:v>
-      </x:c>
-      <x:c r="H216" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="I216" s="0" t="s"/>
-      <x:c r="J216" s="0" t="s"/>
-    </x:row>
-    <x:row r="217" spans="1:10">
-      <x:c r="A217" s="0" t="s"/>
-      <x:c r="B217" s="0" t="s"/>
-      <x:c r="C217" s="0" t="s"/>
-      <x:c r="D217" s="0" t="s"/>
-      <x:c r="E217" s="0" t="s"/>
-      <x:c r="F217" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G217" s="0" t="s">
-        <x:v>535</x:v>
-      </x:c>
-      <x:c r="H217" s="0" t="s">
-        <x:v>536</x:v>
-      </x:c>
-      <x:c r="I217" s="0" t="s"/>
-      <x:c r="J217" s="0" t="s"/>
-    </x:row>
-    <x:row r="218" spans="1:10">
-      <x:c r="A218" s="0" t="s"/>
-      <x:c r="B218" s="0" t="s"/>
-      <x:c r="C218" s="0" t="s"/>
-      <x:c r="D218" s="0" t="s"/>
-      <x:c r="E218" s="0" t="s"/>
-      <x:c r="F218" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G218" s="0" t="s">
-        <x:v>537</x:v>
-      </x:c>
-      <x:c r="H218" s="0" t="s">
-        <x:v>538</x:v>
-      </x:c>
-      <x:c r="I218" s="0" t="s"/>
-      <x:c r="J218" s="0" t="s"/>
-    </x:row>
-    <x:row r="219" spans="1:10">
-      <x:c r="A219" s="0" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="B219" s="0" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="C219" s="0" t="s">
-        <x:v>533</x:v>
-      </x:c>
-      <x:c r="D219" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E219" s="0" t="s"/>
-      <x:c r="F219" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G219" s="0" t="s">
-        <x:v>539</x:v>
-      </x:c>
-      <x:c r="H219" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="I219" s="0" t="s"/>
-      <x:c r="J219" s="0" t="s"/>
-    </x:row>
-    <x:row r="220" spans="1:10">
-      <x:c r="A220" s="0" t="s"/>
-      <x:c r="B220" s="0" t="s"/>
-      <x:c r="C220" s="0" t="s"/>
-      <x:c r="D220" s="0" t="s"/>
-      <x:c r="E220" s="0" t="s"/>
-      <x:c r="F220" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G220" s="0" t="s">
-        <x:v>540</x:v>
-      </x:c>
-      <x:c r="H220" s="0" t="s">
-        <x:v>541</x:v>
-      </x:c>
-      <x:c r="I220" s="0" t="s"/>
-      <x:c r="J220" s="0" t="s"/>
-    </x:row>
-    <x:row r="221" spans="1:10">
-      <x:c r="A221" s="0" t="s"/>
-      <x:c r="B221" s="0" t="s"/>
-      <x:c r="C221" s="0" t="s"/>
-      <x:c r="D221" s="0" t="s"/>
-      <x:c r="E221" s="0" t="s"/>
-      <x:c r="F221" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G221" s="0" t="s">
-        <x:v>542</x:v>
-      </x:c>
-      <x:c r="H221" s="0" t="s">
-        <x:v>543</x:v>
-      </x:c>
-      <x:c r="I221" s="0" t="s"/>
-      <x:c r="J221" s="0" t="s"/>
-    </x:row>
-    <x:row r="222" spans="1:10">
-      <x:c r="A222" s="0" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="B222" s="0" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="C222" s="0" t="s">
-        <x:v>544</x:v>
-      </x:c>
-      <x:c r="D222" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E222" s="0" t="s"/>
-      <x:c r="F222" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G222" s="0" t="s">
-        <x:v>539</x:v>
-      </x:c>
-      <x:c r="H222" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="I222" s="0" t="s"/>
-      <x:c r="J222" s="0" t="s"/>
-    </x:row>
-    <x:row r="223" spans="1:10">
-      <x:c r="A223" s="0" t="s"/>
-      <x:c r="B223" s="0" t="s"/>
-      <x:c r="C223" s="0" t="s"/>
-      <x:c r="D223" s="0" t="s"/>
-      <x:c r="E223" s="0" t="s"/>
-      <x:c r="F223" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G223" s="0" t="s">
-        <x:v>540</x:v>
-      </x:c>
-      <x:c r="H223" s="0" t="s">
-        <x:v>541</x:v>
-      </x:c>
-      <x:c r="I223" s="0" t="s"/>
-      <x:c r="J223" s="0" t="s"/>
-    </x:row>
-    <x:row r="224" spans="1:10">
-      <x:c r="A224" s="0" t="s"/>
-      <x:c r="B224" s="0" t="s"/>
-      <x:c r="C224" s="0" t="s"/>
-      <x:c r="D224" s="0" t="s"/>
-      <x:c r="E224" s="0" t="s"/>
-      <x:c r="F224" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G224" s="0" t="s">
-        <x:v>542</x:v>
-      </x:c>
-      <x:c r="H224" s="0" t="s">
-        <x:v>543</x:v>
-      </x:c>
-      <x:c r="I224" s="0" t="s"/>
-      <x:c r="J224" s="0" t="s"/>
-    </x:row>
-    <x:row r="225" spans="1:10">
-      <x:c r="A225" s="0" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="B225" s="0" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="C225" s="0" t="s">
-        <x:v>545</x:v>
-      </x:c>
-      <x:c r="D225" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E225" s="0" t="s"/>
-      <x:c r="F225" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G225" s="0" t="s">
-        <x:v>539</x:v>
-      </x:c>
-      <x:c r="H225" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="I225" s="0" t="s"/>
-      <x:c r="J225" s="0" t="s"/>
-    </x:row>
-    <x:row r="226" spans="1:10">
-      <x:c r="A226" s="0" t="s"/>
-      <x:c r="B226" s="0" t="s"/>
-      <x:c r="C226" s="0" t="s"/>
-      <x:c r="D226" s="0" t="s"/>
-      <x:c r="E226" s="0" t="s"/>
-      <x:c r="F226" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G226" s="0" t="s">
-        <x:v>540</x:v>
-      </x:c>
-      <x:c r="H226" s="0" t="s">
-        <x:v>541</x:v>
-      </x:c>
-      <x:c r="I226" s="0" t="s"/>
-      <x:c r="J226" s="0" t="s"/>
-    </x:row>
-    <x:row r="227" spans="1:10">
-      <x:c r="A227" s="0" t="s"/>
-      <x:c r="B227" s="0" t="s"/>
-      <x:c r="C227" s="0" t="s"/>
-      <x:c r="D227" s="0" t="s"/>
-      <x:c r="E227" s="0" t="s"/>
-      <x:c r="F227" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G227" s="0" t="s">
-        <x:v>542</x:v>
-      </x:c>
-      <x:c r="H227" s="0" t="s">
-        <x:v>543</x:v>
-      </x:c>
-      <x:c r="I227" s="0" t="s"/>
-      <x:c r="J227" s="0" t="s"/>
-    </x:row>
-    <x:row r="228" spans="1:10">
-      <x:c r="A228" s="0" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="B228" s="0" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="C228" s="0" t="s">
-        <x:v>546</x:v>
-      </x:c>
-      <x:c r="D228" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E228" s="0" t="s"/>
-      <x:c r="F228" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G228" s="0" t="s">
-        <x:v>539</x:v>
-      </x:c>
-      <x:c r="H228" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="I228" s="0" t="s"/>
-      <x:c r="J228" s="0" t="s"/>
-    </x:row>
-    <x:row r="229" spans="1:10">
-      <x:c r="A229" s="0" t="s"/>
-      <x:c r="B229" s="0" t="s"/>
-      <x:c r="C229" s="0" t="s"/>
-      <x:c r="D229" s="0" t="s"/>
-      <x:c r="E229" s="0" t="s"/>
-      <x:c r="F229" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G229" s="0" t="s">
-        <x:v>540</x:v>
-      </x:c>
-      <x:c r="H229" s="0" t="s">
-        <x:v>541</x:v>
-      </x:c>
-      <x:c r="I229" s="0" t="s"/>
-      <x:c r="J229" s="0" t="s"/>
-    </x:row>
-    <x:row r="230" spans="1:10">
-      <x:c r="A230" s="0" t="s"/>
-      <x:c r="B230" s="0" t="s"/>
-      <x:c r="C230" s="0" t="s"/>
-      <x:c r="D230" s="0" t="s"/>
-      <x:c r="E230" s="0" t="s"/>
-      <x:c r="F230" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G230" s="0" t="s">
-        <x:v>542</x:v>
-      </x:c>
-      <x:c r="H230" s="0" t="s">
-        <x:v>543</x:v>
-      </x:c>
-      <x:c r="I230" s="0" t="s"/>
-      <x:c r="J230" s="0" t="s"/>
-    </x:row>
-    <x:row r="231" spans="1:10">
-      <x:c r="A231" s="0" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="B231" s="0" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="C231" s="0" t="s">
-        <x:v>547</x:v>
-      </x:c>
-      <x:c r="D231" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E231" s="0" t="s"/>
-      <x:c r="F231" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G231" s="0" t="s">
-        <x:v>539</x:v>
-      </x:c>
-      <x:c r="H231" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="I231" s="0" t="s"/>
-      <x:c r="J231" s="0" t="s"/>
-    </x:row>
-    <x:row r="232" spans="1:10">
-      <x:c r="A232" s="0" t="s"/>
-      <x:c r="B232" s="0" t="s"/>
-      <x:c r="C232" s="0" t="s"/>
-      <x:c r="D232" s="0" t="s"/>
-      <x:c r="E232" s="0" t="s"/>
-      <x:c r="F232" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G232" s="0" t="s">
-        <x:v>540</x:v>
-      </x:c>
-      <x:c r="H232" s="0" t="s">
-        <x:v>541</x:v>
-      </x:c>
-      <x:c r="I232" s="0" t="s"/>
-      <x:c r="J232" s="0" t="s"/>
-    </x:row>
-    <x:row r="233" spans="1:10">
-      <x:c r="A233" s="0" t="s"/>
-      <x:c r="B233" s="0" t="s"/>
-      <x:c r="C233" s="0" t="s"/>
-      <x:c r="D233" s="0" t="s"/>
-      <x:c r="E233" s="0" t="s"/>
-      <x:c r="F233" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G233" s="0" t="s">
-        <x:v>542</x:v>
-      </x:c>
-      <x:c r="H233" s="0" t="s">
-        <x:v>543</x:v>
-      </x:c>
-      <x:c r="I233" s="0" t="s"/>
-      <x:c r="J233" s="0" t="s"/>
-    </x:row>
-    <x:row r="234" spans="1:10">
-      <x:c r="A234" s="0" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="B234" s="0" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="C234" s="0" t="s">
-        <x:v>548</x:v>
-      </x:c>
-      <x:c r="D234" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E234" s="0" t="s"/>
-      <x:c r="F234" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G234" s="0" t="s">
-        <x:v>539</x:v>
-      </x:c>
-      <x:c r="H234" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="I234" s="0" t="s"/>
-      <x:c r="J234" s="0" t="s"/>
-    </x:row>
-    <x:row r="235" spans="1:10">
-      <x:c r="A235" s="0" t="s"/>
-      <x:c r="B235" s="0" t="s"/>
-      <x:c r="C235" s="0" t="s"/>
-      <x:c r="D235" s="0" t="s"/>
-      <x:c r="E235" s="0" t="s"/>
-      <x:c r="F235" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G235" s="0" t="s">
-        <x:v>540</x:v>
-      </x:c>
-      <x:c r="H235" s="0" t="s">
-        <x:v>541</x:v>
-      </x:c>
-      <x:c r="I235" s="0" t="s"/>
-      <x:c r="J235" s="0" t="s"/>
-    </x:row>
-    <x:row r="236" spans="1:10">
-      <x:c r="A236" s="0" t="s"/>
-      <x:c r="B236" s="0" t="s"/>
-      <x:c r="C236" s="0" t="s"/>
-      <x:c r="D236" s="0" t="s"/>
-      <x:c r="E236" s="0" t="s"/>
-      <x:c r="F236" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G236" s="0" t="s">
-        <x:v>542</x:v>
-      </x:c>
-      <x:c r="H236" s="0" t="s">
-        <x:v>543</x:v>
-      </x:c>
-      <x:c r="I236" s="0" t="s"/>
-      <x:c r="J236" s="0" t="s"/>
-    </x:row>
-    <x:row r="237" spans="1:10">
-      <x:c r="A237" s="0" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="B237" s="0" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="C237" s="0" t="s">
-        <x:v>549</x:v>
-      </x:c>
-      <x:c r="D237" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E237" s="0" t="s"/>
-      <x:c r="F237" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G237" s="0" t="s">
-        <x:v>539</x:v>
-      </x:c>
-      <x:c r="H237" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="I237" s="0" t="s"/>
-      <x:c r="J237" s="0" t="s"/>
-    </x:row>
-    <x:row r="238" spans="1:10">
-      <x:c r="A238" s="0" t="s"/>
-      <x:c r="B238" s="0" t="s"/>
-      <x:c r="C238" s="0" t="s"/>
-      <x:c r="D238" s="0" t="s"/>
-      <x:c r="E238" s="0" t="s"/>
-      <x:c r="F238" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G238" s="0" t="s">
-        <x:v>540</x:v>
-      </x:c>
-      <x:c r="H238" s="0" t="s">
-        <x:v>541</x:v>
-      </x:c>
-      <x:c r="I238" s="0" t="s"/>
-      <x:c r="J238" s="0" t="s"/>
-    </x:row>
-    <x:row r="239" spans="1:10">
-      <x:c r="A239" s="0" t="s"/>
-      <x:c r="B239" s="0" t="s"/>
-      <x:c r="C239" s="0" t="s"/>
-      <x:c r="D239" s="0" t="s"/>
-      <x:c r="E239" s="0" t="s"/>
-      <x:c r="F239" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G239" s="0" t="s">
-        <x:v>542</x:v>
-      </x:c>
-      <x:c r="H239" s="0" t="s">
-        <x:v>543</x:v>
-      </x:c>
-      <x:c r="I239" s="0" t="s"/>
-      <x:c r="J239" s="0" t="s"/>
-    </x:row>
-    <x:row r="240" spans="1:10">
-      <x:c r="A240" s="0" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="B240" s="0" t="s">
-        <x:v>137</x:v>
-      </x:c>
-      <x:c r="C240" s="0" t="s">
-        <x:v>533</x:v>
-      </x:c>
-      <x:c r="D240" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E240" s="0" t="s"/>
-      <x:c r="F240" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G240" s="0" t="s">
-        <x:v>475</x:v>
-      </x:c>
-      <x:c r="H240" s="0" t="s">
-        <x:v>170</x:v>
-      </x:c>
-      <x:c r="I240" s="0" t="s"/>
-      <x:c r="J240" s="0" t="s"/>
-    </x:row>
-    <x:row r="241" spans="1:10">
-      <x:c r="A241" s="0" t="s"/>
-      <x:c r="B241" s="0" t="s"/>
-      <x:c r="C241" s="0" t="s"/>
-      <x:c r="D241" s="0" t="s"/>
-      <x:c r="E241" s="0" t="s"/>
-      <x:c r="F241" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G241" s="0" t="s">
-        <x:v>476</x:v>
-      </x:c>
-      <x:c r="H241" s="0" t="s">
-        <x:v>477</x:v>
-      </x:c>
-      <x:c r="I241" s="0" t="s"/>
-      <x:c r="J241" s="0" t="s"/>
-    </x:row>
-    <x:row r="242" spans="1:10">
-      <x:c r="A242" s="0" t="s"/>
-      <x:c r="B242" s="0" t="s"/>
-      <x:c r="C242" s="0" t="s"/>
-      <x:c r="D242" s="0" t="s"/>
-      <x:c r="E242" s="0" t="s"/>
-      <x:c r="F242" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G242" s="0" t="s">
-        <x:v>550</x:v>
-      </x:c>
-      <x:c r="H242" s="0" t="s">
-        <x:v>551</x:v>
-      </x:c>
-      <x:c r="I242" s="0" t="s"/>
-      <x:c r="J242" s="0" t="s"/>
-    </x:row>
-    <x:row r="243" spans="1:10">
-      <x:c r="A243" s="0" t="s">
-        <x:v>142</x:v>
-      </x:c>
-      <x:c r="B243" s="0" t="s">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="C243" s="0" t="s">
-        <x:v>544</x:v>
-      </x:c>
-      <x:c r="D243" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E243" s="0" t="s"/>
-      <x:c r="F243" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G243" s="0" t="s">
-        <x:v>475</x:v>
-      </x:c>
-      <x:c r="H243" s="0" t="s">
-        <x:v>170</x:v>
-      </x:c>
-      <x:c r="I243" s="0" t="s"/>
-      <x:c r="J243" s="0" t="s"/>
-    </x:row>
-    <x:row r="244" spans="1:10">
-      <x:c r="A244" s="0" t="s"/>
-      <x:c r="B244" s="0" t="s"/>
-      <x:c r="C244" s="0" t="s"/>
-      <x:c r="D244" s="0" t="s"/>
-      <x:c r="E244" s="0" t="s"/>
-      <x:c r="F244" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G244" s="0" t="s">
-        <x:v>476</x:v>
-      </x:c>
-      <x:c r="H244" s="0" t="s">
-        <x:v>477</x:v>
-      </x:c>
-      <x:c r="I244" s="0" t="s"/>
-      <x:c r="J244" s="0" t="s"/>
-    </x:row>
-    <x:row r="245" spans="1:10">
-      <x:c r="A245" s="0" t="s"/>
-      <x:c r="B245" s="0" t="s"/>
-      <x:c r="C245" s="0" t="s"/>
-      <x:c r="D245" s="0" t="s"/>
-      <x:c r="E245" s="0" t="s"/>
-      <x:c r="F245" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G245" s="0" t="s">
-        <x:v>550</x:v>
-      </x:c>
-      <x:c r="H245" s="0" t="s">
-        <x:v>551</x:v>
-      </x:c>
-      <x:c r="I245" s="0" t="s"/>
-      <x:c r="J245" s="0" t="s"/>
-    </x:row>
-    <x:row r="246" spans="1:10">
-      <x:c r="A246" s="0" t="s">
-        <x:v>150</x:v>
-      </x:c>
-      <x:c r="B246" s="0" t="s">
-        <x:v>151</x:v>
-      </x:c>
-      <x:c r="C246" s="0" t="s">
-        <x:v>545</x:v>
-      </x:c>
-      <x:c r="D246" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E246" s="0" t="s"/>
-      <x:c r="F246" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G246" s="0" t="s">
-        <x:v>475</x:v>
-      </x:c>
-      <x:c r="H246" s="0" t="s">
-        <x:v>170</x:v>
-      </x:c>
-      <x:c r="I246" s="0" t="s"/>
-      <x:c r="J246" s="0" t="s"/>
-    </x:row>
-    <x:row r="247" spans="1:10">
-      <x:c r="A247" s="0" t="s"/>
-      <x:c r="B247" s="0" t="s"/>
-      <x:c r="C247" s="0" t="s"/>
-      <x:c r="D247" s="0" t="s"/>
-      <x:c r="E247" s="0" t="s"/>
-      <x:c r="F247" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G247" s="0" t="s">
-        <x:v>476</x:v>
-      </x:c>
-      <x:c r="H247" s="0" t="s">
-        <x:v>477</x:v>
-      </x:c>
-      <x:c r="I247" s="0" t="s"/>
-      <x:c r="J247" s="0" t="s"/>
-    </x:row>
-    <x:row r="248" spans="1:10">
-      <x:c r="A248" s="0" t="s"/>
-      <x:c r="B248" s="0" t="s"/>
-      <x:c r="C248" s="0" t="s"/>
-      <x:c r="D248" s="0" t="s"/>
-      <x:c r="E248" s="0" t="s"/>
-      <x:c r="F248" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G248" s="0" t="s">
-        <x:v>550</x:v>
-      </x:c>
-      <x:c r="H248" s="0" t="s">
-        <x:v>551</x:v>
-      </x:c>
-      <x:c r="I248" s="0" t="s"/>
-      <x:c r="J248" s="0" t="s"/>
-    </x:row>
-    <x:row r="249" spans="1:10">
-      <x:c r="A249" s="0" t="s">
-        <x:v>166</x:v>
-      </x:c>
-      <x:c r="B249" s="0" t="s">
-        <x:v>167</x:v>
-      </x:c>
-      <x:c r="C249" s="0" t="s">
-        <x:v>546</x:v>
-      </x:c>
-      <x:c r="D249" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E249" s="0" t="s"/>
-      <x:c r="F249" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G249" s="0" t="s">
-        <x:v>475</x:v>
-      </x:c>
-      <x:c r="H249" s="0" t="s">
-        <x:v>170</x:v>
-      </x:c>
-      <x:c r="I249" s="0" t="s"/>
-      <x:c r="J249" s="0" t="s"/>
-    </x:row>
-    <x:row r="250" spans="1:10">
-      <x:c r="A250" s="0" t="s"/>
-      <x:c r="B250" s="0" t="s"/>
-      <x:c r="C250" s="0" t="s"/>
-      <x:c r="D250" s="0" t="s"/>
-      <x:c r="E250" s="0" t="s"/>
-      <x:c r="F250" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G250" s="0" t="s">
-        <x:v>476</x:v>
-      </x:c>
-      <x:c r="H250" s="0" t="s">
-        <x:v>477</x:v>
-      </x:c>
-      <x:c r="I250" s="0" t="s"/>
-      <x:c r="J250" s="0" t="s"/>
-    </x:row>
-    <x:row r="251" spans="1:10">
-      <x:c r="A251" s="0" t="s"/>
-      <x:c r="B251" s="0" t="s"/>
-      <x:c r="C251" s="0" t="s"/>
-      <x:c r="D251" s="0" t="s"/>
-      <x:c r="E251" s="0" t="s"/>
-      <x:c r="F251" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G251" s="0" t="s">
-        <x:v>550</x:v>
-      </x:c>
-      <x:c r="H251" s="0" t="s">
-        <x:v>551</x:v>
-      </x:c>
-      <x:c r="I251" s="0" t="s"/>
-      <x:c r="J251" s="0" t="s"/>
-    </x:row>
-    <x:row r="252" spans="1:10">
-      <x:c r="A252" s="0" t="s">
-        <x:v>173</x:v>
-      </x:c>
-      <x:c r="B252" s="0" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="C252" s="0" t="s">
-        <x:v>547</x:v>
-      </x:c>
-      <x:c r="D252" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E252" s="0" t="s"/>
-      <x:c r="F252" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G252" s="0" t="s">
-        <x:v>475</x:v>
-      </x:c>
-      <x:c r="H252" s="0" t="s">
-        <x:v>170</x:v>
-      </x:c>
-      <x:c r="I252" s="0" t="s"/>
-      <x:c r="J252" s="0" t="s"/>
-    </x:row>
-    <x:row r="253" spans="1:10">
-      <x:c r="A253" s="0" t="s"/>
-      <x:c r="B253" s="0" t="s"/>
-      <x:c r="C253" s="0" t="s"/>
-      <x:c r="D253" s="0" t="s"/>
-      <x:c r="E253" s="0" t="s"/>
-      <x:c r="F253" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G253" s="0" t="s">
-        <x:v>476</x:v>
-      </x:c>
-      <x:c r="H253" s="0" t="s">
-        <x:v>477</x:v>
-      </x:c>
-      <x:c r="I253" s="0" t="s"/>
-      <x:c r="J253" s="0" t="s"/>
-    </x:row>
-    <x:row r="254" spans="1:10">
-      <x:c r="A254" s="0" t="s"/>
-      <x:c r="B254" s="0" t="s"/>
-      <x:c r="C254" s="0" t="s"/>
-      <x:c r="D254" s="0" t="s"/>
-      <x:c r="E254" s="0" t="s"/>
-      <x:c r="F254" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G254" s="0" t="s">
-        <x:v>550</x:v>
-      </x:c>
-      <x:c r="H254" s="0" t="s">
-        <x:v>551</x:v>
-      </x:c>
-      <x:c r="I254" s="0" t="s"/>
-      <x:c r="J254" s="0" t="s"/>
-    </x:row>
-    <x:row r="255" spans="1:10">
-      <x:c r="A255" s="0" t="s">
-        <x:v>179</x:v>
-      </x:c>
-      <x:c r="B255" s="0" t="s">
-        <x:v>180</x:v>
-      </x:c>
-      <x:c r="C255" s="0" t="s">
-        <x:v>548</x:v>
-      </x:c>
-      <x:c r="D255" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E255" s="0" t="s"/>
-      <x:c r="F255" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G255" s="0" t="s">
-        <x:v>475</x:v>
-      </x:c>
-      <x:c r="H255" s="0" t="s">
-        <x:v>170</x:v>
-      </x:c>
-      <x:c r="I255" s="0" t="s"/>
-      <x:c r="J255" s="0" t="s"/>
-    </x:row>
-    <x:row r="256" spans="1:10">
-      <x:c r="A256" s="0" t="s"/>
-      <x:c r="B256" s="0" t="s"/>
-      <x:c r="C256" s="0" t="s"/>
-      <x:c r="D256" s="0" t="s"/>
-      <x:c r="E256" s="0" t="s"/>
-      <x:c r="F256" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G256" s="0" t="s">
-        <x:v>476</x:v>
-      </x:c>
-      <x:c r="H256" s="0" t="s">
-        <x:v>477</x:v>
-      </x:c>
-      <x:c r="I256" s="0" t="s"/>
-      <x:c r="J256" s="0" t="s"/>
-    </x:row>
-    <x:row r="257" spans="1:10">
-      <x:c r="A257" s="0" t="s"/>
-      <x:c r="B257" s="0" t="s"/>
-      <x:c r="C257" s="0" t="s"/>
-      <x:c r="D257" s="0" t="s"/>
-      <x:c r="E257" s="0" t="s"/>
-      <x:c r="F257" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G257" s="0" t="s">
-        <x:v>550</x:v>
-      </x:c>
-      <x:c r="H257" s="0" t="s">
-        <x:v>551</x:v>
-      </x:c>
-      <x:c r="I257" s="0" t="s"/>
-      <x:c r="J257" s="0" t="s"/>
-    </x:row>
-    <x:row r="258" spans="1:10">
-      <x:c r="A258" s="0" t="s">
-        <x:v>187</x:v>
-      </x:c>
-      <x:c r="B258" s="0" t="s">
-        <x:v>188</x:v>
-      </x:c>
-      <x:c r="C258" s="0" t="s">
-        <x:v>549</x:v>
-      </x:c>
-      <x:c r="D258" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E258" s="0" t="s"/>
-      <x:c r="F258" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G258" s="0" t="s">
-        <x:v>475</x:v>
-      </x:c>
-      <x:c r="H258" s="0" t="s">
-        <x:v>170</x:v>
-      </x:c>
-      <x:c r="I258" s="0" t="s"/>
-      <x:c r="J258" s="0" t="s"/>
-    </x:row>
-    <x:row r="259" spans="1:10">
-      <x:c r="A259" s="0" t="s"/>
-      <x:c r="B259" s="0" t="s"/>
-      <x:c r="C259" s="0" t="s"/>
-      <x:c r="D259" s="0" t="s"/>
-      <x:c r="E259" s="0" t="s"/>
-      <x:c r="F259" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G259" s="0" t="s">
-        <x:v>476</x:v>
-      </x:c>
-      <x:c r="H259" s="0" t="s">
-        <x:v>477</x:v>
-      </x:c>
-      <x:c r="I259" s="0" t="s"/>
-      <x:c r="J259" s="0" t="s"/>
-    </x:row>
-    <x:row r="260" spans="1:10">
-      <x:c r="A260" s="0" t="s"/>
-      <x:c r="B260" s="0" t="s"/>
-      <x:c r="C260" s="0" t="s"/>
-      <x:c r="D260" s="0" t="s"/>
-      <x:c r="E260" s="0" t="s"/>
-      <x:c r="F260" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G260" s="0" t="s">
-        <x:v>550</x:v>
-      </x:c>
-      <x:c r="H260" s="0" t="s">
-        <x:v>551</x:v>
-      </x:c>
-      <x:c r="I260" s="0" t="s"/>
-      <x:c r="J260" s="0" t="s"/>
-    </x:row>
-    <x:row r="261" spans="1:10">
-      <x:c r="A261" s="0" t="s">
-        <x:v>197</x:v>
-      </x:c>
-      <x:c r="B261" s="0" t="s">
-        <x:v>198</x:v>
-      </x:c>
-      <x:c r="C261" s="0" t="s">
-        <x:v>552</x:v>
-      </x:c>
-      <x:c r="D261" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E261" s="0" t="s"/>
-      <x:c r="F261" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G261" s="0" t="s">
-        <x:v>475</x:v>
-      </x:c>
-      <x:c r="H261" s="0" t="s">
-        <x:v>170</x:v>
-      </x:c>
-      <x:c r="I261" s="0" t="s"/>
-      <x:c r="J261" s="0" t="s"/>
-    </x:row>
-    <x:row r="262" spans="1:10">
-      <x:c r="A262" s="0" t="s"/>
-      <x:c r="B262" s="0" t="s"/>
-      <x:c r="C262" s="0" t="s"/>
-      <x:c r="D262" s="0" t="s"/>
-      <x:c r="E262" s="0" t="s"/>
-      <x:c r="F262" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G262" s="0" t="s">
-        <x:v>476</x:v>
-      </x:c>
-      <x:c r="H262" s="0" t="s">
-        <x:v>477</x:v>
-      </x:c>
-      <x:c r="I262" s="0" t="s"/>
-      <x:c r="J262" s="0" t="s"/>
-    </x:row>
-    <x:row r="263" spans="1:10">
-      <x:c r="A263" s="0" t="s"/>
-      <x:c r="B263" s="0" t="s"/>
-      <x:c r="C263" s="0" t="s"/>
-      <x:c r="D263" s="0" t="s"/>
-      <x:c r="E263" s="0" t="s"/>
-      <x:c r="F263" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G263" s="0" t="s">
-        <x:v>550</x:v>
-      </x:c>
-      <x:c r="H263" s="0" t="s">
-        <x:v>551</x:v>
-      </x:c>
-      <x:c r="I263" s="0" t="s"/>
-      <x:c r="J263" s="0" t="s"/>
-    </x:row>
-    <x:row r="264" spans="1:10">
-      <x:c r="A264" s="0" t="s">
-        <x:v>204</x:v>
-      </x:c>
-      <x:c r="B264" s="0" t="s">
-        <x:v>205</x:v>
-      </x:c>
-      <x:c r="C264" s="0" t="s">
-        <x:v>553</x:v>
-      </x:c>
-      <x:c r="D264" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E264" s="0" t="s"/>
-      <x:c r="F264" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G264" s="0" t="s">
-        <x:v>475</x:v>
-      </x:c>
-      <x:c r="H264" s="0" t="s">
-        <x:v>170</x:v>
-      </x:c>
-      <x:c r="I264" s="0" t="s"/>
-      <x:c r="J264" s="0" t="s"/>
-    </x:row>
-    <x:row r="265" spans="1:10">
-      <x:c r="A265" s="0" t="s"/>
-      <x:c r="B265" s="0" t="s"/>
-      <x:c r="C265" s="0" t="s"/>
-      <x:c r="D265" s="0" t="s"/>
-      <x:c r="E265" s="0" t="s"/>
-      <x:c r="F265" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G265" s="0" t="s">
-        <x:v>476</x:v>
-      </x:c>
-      <x:c r="H265" s="0" t="s">
-        <x:v>477</x:v>
-      </x:c>
-      <x:c r="I265" s="0" t="s"/>
-      <x:c r="J265" s="0" t="s"/>
-    </x:row>
-    <x:row r="266" spans="1:10">
-      <x:c r="A266" s="0" t="s"/>
-      <x:c r="B266" s="0" t="s"/>
-      <x:c r="C266" s="0" t="s"/>
-      <x:c r="D266" s="0" t="s"/>
-      <x:c r="E266" s="0" t="s"/>
-      <x:c r="F266" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G266" s="0" t="s">
-        <x:v>550</x:v>
-      </x:c>
-      <x:c r="H266" s="0" t="s">
-        <x:v>551</x:v>
-      </x:c>
-      <x:c r="I266" s="0" t="s"/>
-      <x:c r="J266" s="0" t="s"/>
-    </x:row>
-    <x:row r="267" spans="1:10">
-      <x:c r="A267" s="0" t="s">
-        <x:v>210</x:v>
-      </x:c>
-      <x:c r="B267" s="0" t="s">
-        <x:v>211</x:v>
-      </x:c>
-      <x:c r="C267" s="0" t="s">
-        <x:v>554</x:v>
-      </x:c>
-      <x:c r="D267" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E267" s="0" t="s"/>
-      <x:c r="F267" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G267" s="0" t="s">
-        <x:v>475</x:v>
-      </x:c>
-      <x:c r="H267" s="0" t="s">
-        <x:v>170</x:v>
-      </x:c>
-      <x:c r="I267" s="0" t="s"/>
-      <x:c r="J267" s="0" t="s"/>
-    </x:row>
-    <x:row r="268" spans="1:10">
-      <x:c r="A268" s="0" t="s"/>
-      <x:c r="B268" s="0" t="s"/>
-      <x:c r="C268" s="0" t="s"/>
-      <x:c r="D268" s="0" t="s"/>
-      <x:c r="E268" s="0" t="s"/>
-      <x:c r="F268" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G268" s="0" t="s">
-        <x:v>476</x:v>
-      </x:c>
-      <x:c r="H268" s="0" t="s">
-        <x:v>477</x:v>
-      </x:c>
-      <x:c r="I268" s="0" t="s"/>
-      <x:c r="J268" s="0" t="s"/>
-    </x:row>
-    <x:row r="269" spans="1:10">
-      <x:c r="A269" s="0" t="s"/>
-      <x:c r="B269" s="0" t="s"/>
-      <x:c r="C269" s="0" t="s"/>
-      <x:c r="D269" s="0" t="s"/>
-      <x:c r="E269" s="0" t="s"/>
-      <x:c r="F269" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G269" s="0" t="s">
-        <x:v>550</x:v>
-      </x:c>
-      <x:c r="H269" s="0" t="s">
-        <x:v>551</x:v>
-      </x:c>
-      <x:c r="I269" s="0" t="s"/>
-      <x:c r="J269" s="0" t="s"/>
-    </x:row>
-    <x:row r="270" spans="1:10">
-      <x:c r="A270" s="0" t="s">
-        <x:v>218</x:v>
-      </x:c>
-      <x:c r="B270" s="0" t="s">
-        <x:v>219</x:v>
-      </x:c>
-      <x:c r="C270" s="0" t="s">
-        <x:v>555</x:v>
-      </x:c>
-      <x:c r="D270" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E270" s="0" t="s"/>
-      <x:c r="F270" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G270" s="0" t="s">
-        <x:v>475</x:v>
-      </x:c>
-      <x:c r="H270" s="0" t="s">
-        <x:v>170</x:v>
-      </x:c>
-      <x:c r="I270" s="0" t="s"/>
-      <x:c r="J270" s="0" t="s"/>
-    </x:row>
-    <x:row r="271" spans="1:10">
-      <x:c r="A271" s="0" t="s"/>
-      <x:c r="B271" s="0" t="s"/>
-      <x:c r="C271" s="0" t="s"/>
-      <x:c r="D271" s="0" t="s"/>
-      <x:c r="E271" s="0" t="s"/>
-      <x:c r="F271" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G271" s="0" t="s">
-        <x:v>476</x:v>
-      </x:c>
-      <x:c r="H271" s="0" t="s">
-        <x:v>477</x:v>
-      </x:c>
-      <x:c r="I271" s="0" t="s"/>
-      <x:c r="J271" s="0" t="s"/>
-    </x:row>
-    <x:row r="272" spans="1:10">
-      <x:c r="A272" s="0" t="s"/>
-      <x:c r="B272" s="0" t="s"/>
-      <x:c r="C272" s="0" t="s"/>
-      <x:c r="D272" s="0" t="s"/>
-      <x:c r="E272" s="0" t="s"/>
-      <x:c r="F272" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G272" s="0" t="s">
-        <x:v>550</x:v>
-      </x:c>
-      <x:c r="H272" s="0" t="s">
-        <x:v>551</x:v>
-      </x:c>
-      <x:c r="I272" s="0" t="s"/>
-      <x:c r="J272" s="0" t="s"/>
-    </x:row>
-    <x:row r="273" spans="1:10">
-      <x:c r="A273" s="0" t="s">
-        <x:v>231</x:v>
-      </x:c>
-      <x:c r="B273" s="0" t="s">
-        <x:v>232</x:v>
-      </x:c>
-      <x:c r="C273" s="0" t="s">
-        <x:v>556</x:v>
-      </x:c>
-      <x:c r="D273" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E273" s="0" t="s"/>
-      <x:c r="F273" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G273" s="0" t="s">
-        <x:v>475</x:v>
-      </x:c>
-      <x:c r="H273" s="0" t="s">
-        <x:v>170</x:v>
-      </x:c>
-      <x:c r="I273" s="0" t="s"/>
-      <x:c r="J273" s="0" t="s"/>
-    </x:row>
-    <x:row r="274" spans="1:10">
-      <x:c r="A274" s="0" t="s"/>
-      <x:c r="B274" s="0" t="s"/>
-      <x:c r="C274" s="0" t="s"/>
-      <x:c r="D274" s="0" t="s"/>
-      <x:c r="E274" s="0" t="s"/>
-      <x:c r="F274" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G274" s="0" t="s">
-        <x:v>476</x:v>
-      </x:c>
-      <x:c r="H274" s="0" t="s">
-        <x:v>477</x:v>
-      </x:c>
-      <x:c r="I274" s="0" t="s"/>
-      <x:c r="J274" s="0" t="s"/>
-    </x:row>
-    <x:row r="275" spans="1:10">
-      <x:c r="A275" s="0" t="s"/>
-      <x:c r="B275" s="0" t="s"/>
-      <x:c r="C275" s="0" t="s"/>
-      <x:c r="D275" s="0" t="s"/>
-      <x:c r="E275" s="0" t="s"/>
-      <x:c r="F275" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G275" s="0" t="s">
-        <x:v>550</x:v>
-      </x:c>
-      <x:c r="H275" s="0" t="s">
-        <x:v>551</x:v>
-      </x:c>
-      <x:c r="I275" s="0" t="s"/>
-      <x:c r="J275" s="0" t="s"/>
-    </x:row>
-    <x:row r="276" spans="1:10">
-      <x:c r="A276" s="0" t="s">
-        <x:v>238</x:v>
-      </x:c>
-      <x:c r="B276" s="0" t="s">
-        <x:v>239</x:v>
-      </x:c>
-      <x:c r="C276" s="0" t="s">
-        <x:v>557</x:v>
-      </x:c>
-      <x:c r="D276" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E276" s="0" t="s"/>
-      <x:c r="F276" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G276" s="0" t="s">
-        <x:v>475</x:v>
-      </x:c>
-      <x:c r="H276" s="0" t="s">
-        <x:v>170</x:v>
-      </x:c>
-      <x:c r="I276" s="0" t="s"/>
-      <x:c r="J276" s="0" t="s"/>
-    </x:row>
-    <x:row r="277" spans="1:10">
-      <x:c r="A277" s="0" t="s"/>
-      <x:c r="B277" s="0" t="s"/>
-      <x:c r="C277" s="0" t="s"/>
-      <x:c r="D277" s="0" t="s"/>
-      <x:c r="E277" s="0" t="s"/>
-      <x:c r="F277" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G277" s="0" t="s">
-        <x:v>476</x:v>
-      </x:c>
-      <x:c r="H277" s="0" t="s">
-        <x:v>477</x:v>
-      </x:c>
-      <x:c r="I277" s="0" t="s"/>
-      <x:c r="J277" s="0" t="s"/>
-    </x:row>
-    <x:row r="278" spans="1:10">
-      <x:c r="A278" s="0" t="s"/>
-      <x:c r="B278" s="0" t="s"/>
-      <x:c r="C278" s="0" t="s"/>
-      <x:c r="D278" s="0" t="s"/>
-      <x:c r="E278" s="0" t="s"/>
-      <x:c r="F278" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G278" s="0" t="s">
-        <x:v>550</x:v>
-      </x:c>
-      <x:c r="H278" s="0" t="s">
-        <x:v>551</x:v>
-      </x:c>
-      <x:c r="I278" s="0" t="s"/>
-      <x:c r="J278" s="0" t="s"/>
-    </x:row>
-    <x:row r="279" spans="1:10">
-      <x:c r="A279" s="0" t="s">
-        <x:v>244</x:v>
-      </x:c>
-      <x:c r="B279" s="0" t="s">
-        <x:v>245</x:v>
-      </x:c>
-      <x:c r="C279" s="0" t="s">
-        <x:v>558</x:v>
-      </x:c>
-      <x:c r="D279" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E279" s="0" t="s"/>
-      <x:c r="F279" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G279" s="0" t="s">
-        <x:v>475</x:v>
-      </x:c>
-      <x:c r="H279" s="0" t="s">
-        <x:v>170</x:v>
-      </x:c>
-      <x:c r="I279" s="0" t="s"/>
-      <x:c r="J279" s="0" t="s"/>
-    </x:row>
-    <x:row r="280" spans="1:10">
-      <x:c r="A280" s="0" t="s"/>
-      <x:c r="B280" s="0" t="s"/>
-      <x:c r="C280" s="0" t="s"/>
-      <x:c r="D280" s="0" t="s"/>
-      <x:c r="E280" s="0" t="s"/>
-      <x:c r="F280" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G280" s="0" t="s">
-        <x:v>476</x:v>
-      </x:c>
-      <x:c r="H280" s="0" t="s">
-        <x:v>477</x:v>
-      </x:c>
-      <x:c r="I280" s="0" t="s"/>
-      <x:c r="J280" s="0" t="s"/>
-    </x:row>
-    <x:row r="281" spans="1:10">
-      <x:c r="A281" s="0" t="s"/>
-      <x:c r="B281" s="0" t="s"/>
-      <x:c r="C281" s="0" t="s"/>
-      <x:c r="D281" s="0" t="s"/>
-      <x:c r="E281" s="0" t="s"/>
-      <x:c r="F281" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G281" s="0" t="s">
-        <x:v>550</x:v>
-      </x:c>
-      <x:c r="H281" s="0" t="s">
-        <x:v>551</x:v>
-      </x:c>
-      <x:c r="I281" s="0" t="s"/>
-      <x:c r="J281" s="0" t="s"/>
-    </x:row>
-    <x:row r="282" spans="1:10">
-      <x:c r="A282" s="0" t="s">
-        <x:v>252</x:v>
-      </x:c>
-      <x:c r="B282" s="0" t="s">
-        <x:v>253</x:v>
-      </x:c>
-      <x:c r="C282" s="0" t="s">
-        <x:v>559</x:v>
-      </x:c>
-      <x:c r="D282" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E282" s="0" t="s"/>
-      <x:c r="F282" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G282" s="0" t="s">
-        <x:v>475</x:v>
-      </x:c>
-      <x:c r="H282" s="0" t="s">
-        <x:v>170</x:v>
-      </x:c>
-      <x:c r="I282" s="0" t="s"/>
-      <x:c r="J282" s="0" t="s"/>
-    </x:row>
-    <x:row r="283" spans="1:10">
-      <x:c r="A283" s="0" t="s"/>
-      <x:c r="B283" s="0" t="s"/>
-      <x:c r="C283" s="0" t="s"/>
-      <x:c r="D283" s="0" t="s"/>
-      <x:c r="E283" s="0" t="s"/>
-      <x:c r="F283" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G283" s="0" t="s">
-        <x:v>476</x:v>
-      </x:c>
-      <x:c r="H283" s="0" t="s">
-        <x:v>477</x:v>
-      </x:c>
-      <x:c r="I283" s="0" t="s"/>
-      <x:c r="J283" s="0" t="s"/>
-    </x:row>
-    <x:row r="284" spans="1:10">
-      <x:c r="A284" s="0" t="s"/>
-      <x:c r="B284" s="0" t="s"/>
-      <x:c r="C284" s="0" t="s"/>
-      <x:c r="D284" s="0" t="s"/>
-      <x:c r="E284" s="0" t="s"/>
-      <x:c r="F284" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G284" s="0" t="s">
-        <x:v>550</x:v>
-      </x:c>
-      <x:c r="H284" s="0" t="s">
-        <x:v>551</x:v>
-      </x:c>
-      <x:c r="I284" s="0" t="s"/>
-      <x:c r="J284" s="0" t="s"/>
-    </x:row>
-    <x:row r="285" spans="1:10">
-      <x:c r="A285" s="0" t="s">
-        <x:v>262</x:v>
-      </x:c>
-      <x:c r="B285" s="0" t="s">
-        <x:v>263</x:v>
-      </x:c>
-      <x:c r="C285" s="0" t="s">
-        <x:v>560</x:v>
-      </x:c>
-      <x:c r="D285" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E285" s="0" t="s"/>
-      <x:c r="F285" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G285" s="0" t="s">
-        <x:v>475</x:v>
-      </x:c>
-      <x:c r="H285" s="0" t="s">
-        <x:v>170</x:v>
-      </x:c>
-      <x:c r="I285" s="0" t="s"/>
-      <x:c r="J285" s="0" t="s"/>
-    </x:row>
-    <x:row r="286" spans="1:10">
-      <x:c r="A286" s="0" t="s"/>
-      <x:c r="B286" s="0" t="s"/>
-      <x:c r="C286" s="0" t="s"/>
-      <x:c r="D286" s="0" t="s"/>
-      <x:c r="E286" s="0" t="s"/>
-      <x:c r="F286" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G286" s="0" t="s">
-        <x:v>476</x:v>
-      </x:c>
-      <x:c r="H286" s="0" t="s">
-        <x:v>477</x:v>
-      </x:c>
-      <x:c r="I286" s="0" t="s"/>
-      <x:c r="J286" s="0" t="s"/>
-    </x:row>
-    <x:row r="287" spans="1:10">
-      <x:c r="A287" s="0" t="s"/>
-      <x:c r="B287" s="0" t="s"/>
-      <x:c r="C287" s="0" t="s"/>
-      <x:c r="D287" s="0" t="s"/>
-      <x:c r="E287" s="0" t="s"/>
-      <x:c r="F287" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G287" s="0" t="s">
-        <x:v>550</x:v>
-      </x:c>
-      <x:c r="H287" s="0" t="s">
-        <x:v>551</x:v>
-      </x:c>
-      <x:c r="I287" s="0" t="s"/>
-      <x:c r="J287" s="0" t="s"/>
-    </x:row>
-    <x:row r="288" spans="1:10">
-      <x:c r="A288" s="0" t="s">
-        <x:v>269</x:v>
-      </x:c>
-      <x:c r="B288" s="0" t="s">
-        <x:v>270</x:v>
-      </x:c>
-      <x:c r="C288" s="0" t="s">
-        <x:v>561</x:v>
-      </x:c>
-      <x:c r="D288" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E288" s="0" t="s"/>
-      <x:c r="F288" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G288" s="0" t="s">
-        <x:v>475</x:v>
-      </x:c>
-      <x:c r="H288" s="0" t="s">
-        <x:v>170</x:v>
-      </x:c>
-      <x:c r="I288" s="0" t="s"/>
-      <x:c r="J288" s="0" t="s"/>
-    </x:row>
-    <x:row r="289" spans="1:10">
-      <x:c r="A289" s="0" t="s"/>
-      <x:c r="B289" s="0" t="s"/>
-      <x:c r="C289" s="0" t="s"/>
-      <x:c r="D289" s="0" t="s"/>
-      <x:c r="E289" s="0" t="s"/>
-      <x:c r="F289" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G289" s="0" t="s">
-        <x:v>476</x:v>
-      </x:c>
-      <x:c r="H289" s="0" t="s">
-        <x:v>477</x:v>
-      </x:c>
-      <x:c r="I289" s="0" t="s"/>
-      <x:c r="J289" s="0" t="s"/>
-    </x:row>
-    <x:row r="290" spans="1:10">
-      <x:c r="A290" s="0" t="s"/>
-      <x:c r="B290" s="0" t="s"/>
-      <x:c r="C290" s="0" t="s"/>
-      <x:c r="D290" s="0" t="s"/>
-      <x:c r="E290" s="0" t="s"/>
-      <x:c r="F290" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G290" s="0" t="s">
-        <x:v>550</x:v>
-      </x:c>
-      <x:c r="H290" s="0" t="s">
-        <x:v>551</x:v>
-      </x:c>
-      <x:c r="I290" s="0" t="s"/>
-      <x:c r="J290" s="0" t="s"/>
-    </x:row>
-    <x:row r="291" spans="1:10">
-      <x:c r="A291" s="0" t="s">
-        <x:v>275</x:v>
-      </x:c>
-      <x:c r="B291" s="0" t="s">
-        <x:v>276</x:v>
-      </x:c>
-      <x:c r="C291" s="0" t="s">
-        <x:v>562</x:v>
-      </x:c>
-      <x:c r="D291" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E291" s="0" t="s"/>
-      <x:c r="F291" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G291" s="0" t="s">
-        <x:v>475</x:v>
-      </x:c>
-      <x:c r="H291" s="0" t="s">
-        <x:v>170</x:v>
-      </x:c>
-      <x:c r="I291" s="0" t="s"/>
-      <x:c r="J291" s="0" t="s"/>
-    </x:row>
-    <x:row r="292" spans="1:10">
-      <x:c r="A292" s="0" t="s"/>
-      <x:c r="B292" s="0" t="s"/>
-      <x:c r="C292" s="0" t="s"/>
-      <x:c r="D292" s="0" t="s"/>
-      <x:c r="E292" s="0" t="s"/>
-      <x:c r="F292" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G292" s="0" t="s">
-        <x:v>476</x:v>
-      </x:c>
-      <x:c r="H292" s="0" t="s">
-        <x:v>477</x:v>
-      </x:c>
-      <x:c r="I292" s="0" t="s"/>
-      <x:c r="J292" s="0" t="s"/>
-    </x:row>
-    <x:row r="293" spans="1:10">
-      <x:c r="A293" s="0" t="s"/>
-      <x:c r="B293" s="0" t="s"/>
-      <x:c r="C293" s="0" t="s"/>
-      <x:c r="D293" s="0" t="s"/>
-      <x:c r="E293" s="0" t="s"/>
-      <x:c r="F293" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G293" s="0" t="s">
-        <x:v>550</x:v>
-      </x:c>
-      <x:c r="H293" s="0" t="s">
-        <x:v>551</x:v>
-      </x:c>
-      <x:c r="I293" s="0" t="s"/>
-      <x:c r="J293" s="0" t="s"/>
-    </x:row>
-    <x:row r="294" spans="1:10">
-      <x:c r="A294" s="0" t="s">
-        <x:v>283</x:v>
-      </x:c>
-      <x:c r="B294" s="0" t="s">
-        <x:v>284</x:v>
-      </x:c>
-      <x:c r="C294" s="0" t="s">
-        <x:v>563</x:v>
-      </x:c>
-      <x:c r="D294" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E294" s="0" t="s"/>
-      <x:c r="F294" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G294" s="0" t="s">
-        <x:v>475</x:v>
-      </x:c>
-      <x:c r="H294" s="0" t="s">
-        <x:v>170</x:v>
-      </x:c>
-      <x:c r="I294" s="0" t="s"/>
-      <x:c r="J294" s="0" t="s"/>
-    </x:row>
-    <x:row r="295" spans="1:10">
-      <x:c r="A295" s="0" t="s"/>
-      <x:c r="B295" s="0" t="s"/>
-      <x:c r="C295" s="0" t="s"/>
-      <x:c r="D295" s="0" t="s"/>
-      <x:c r="E295" s="0" t="s"/>
-      <x:c r="F295" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G295" s="0" t="s">
-        <x:v>476</x:v>
-      </x:c>
-      <x:c r="H295" s="0" t="s">
-        <x:v>477</x:v>
-      </x:c>
-      <x:c r="I295" s="0" t="s"/>
-      <x:c r="J295" s="0" t="s"/>
-    </x:row>
-    <x:row r="296" spans="1:10">
-      <x:c r="A296" s="0" t="s"/>
-      <x:c r="B296" s="0" t="s"/>
-      <x:c r="C296" s="0" t="s"/>
-      <x:c r="D296" s="0" t="s"/>
-      <x:c r="E296" s="0" t="s"/>
-      <x:c r="F296" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G296" s="0" t="s">
-        <x:v>550</x:v>
-      </x:c>
-      <x:c r="H296" s="0" t="s">
-        <x:v>551</x:v>
-      </x:c>
-      <x:c r="I296" s="0" t="s"/>
-      <x:c r="J296" s="0" t="s"/>
-    </x:row>
-    <x:row r="297" spans="1:10">
-      <x:c r="A297" s="0" t="s">
-        <x:v>296</x:v>
-      </x:c>
-      <x:c r="B297" s="0" t="s">
-        <x:v>297</x:v>
-      </x:c>
-      <x:c r="C297" s="0" t="s">
-        <x:v>564</x:v>
-      </x:c>
-      <x:c r="D297" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E297" s="0" t="s"/>
-      <x:c r="F297" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G297" s="0" t="s">
-        <x:v>475</x:v>
-      </x:c>
-      <x:c r="H297" s="0" t="s">
-        <x:v>170</x:v>
-      </x:c>
-      <x:c r="I297" s="0" t="s"/>
-      <x:c r="J297" s="0" t="s"/>
-    </x:row>
-    <x:row r="298" spans="1:10">
-      <x:c r="A298" s="0" t="s"/>
-      <x:c r="B298" s="0" t="s"/>
-      <x:c r="C298" s="0" t="s"/>
-      <x:c r="D298" s="0" t="s"/>
-      <x:c r="E298" s="0" t="s"/>
-      <x:c r="F298" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G298" s="0" t="s">
-        <x:v>476</x:v>
-      </x:c>
-      <x:c r="H298" s="0" t="s">
-        <x:v>477</x:v>
-      </x:c>
-      <x:c r="I298" s="0" t="s"/>
-      <x:c r="J298" s="0" t="s"/>
-    </x:row>
-    <x:row r="299" spans="1:10">
-      <x:c r="A299" s="0" t="s"/>
-      <x:c r="B299" s="0" t="s"/>
-      <x:c r="C299" s="0" t="s"/>
-      <x:c r="D299" s="0" t="s"/>
-      <x:c r="E299" s="0" t="s"/>
-      <x:c r="F299" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G299" s="0" t="s">
-        <x:v>550</x:v>
-      </x:c>
-      <x:c r="H299" s="0" t="s">
-        <x:v>551</x:v>
-      </x:c>
-      <x:c r="I299" s="0" t="s"/>
-      <x:c r="J299" s="0" t="s"/>
-    </x:row>
-    <x:row r="300" spans="1:10">
-      <x:c r="A300" s="0" t="s">
-        <x:v>303</x:v>
-      </x:c>
-      <x:c r="B300" s="0" t="s">
-        <x:v>304</x:v>
-      </x:c>
-      <x:c r="C300" s="0" t="s">
-        <x:v>565</x:v>
-      </x:c>
-      <x:c r="D300" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E300" s="0" t="s"/>
-      <x:c r="F300" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G300" s="0" t="s">
-        <x:v>475</x:v>
-      </x:c>
-      <x:c r="H300" s="0" t="s">
-        <x:v>170</x:v>
-      </x:c>
-      <x:c r="I300" s="0" t="s"/>
-      <x:c r="J300" s="0" t="s"/>
-    </x:row>
-    <x:row r="301" spans="1:10">
-      <x:c r="A301" s="0" t="s"/>
-      <x:c r="B301" s="0" t="s"/>
-      <x:c r="C301" s="0" t="s"/>
-      <x:c r="D301" s="0" t="s"/>
-      <x:c r="E301" s="0" t="s"/>
-      <x:c r="F301" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G301" s="0" t="s">
-        <x:v>476</x:v>
-      </x:c>
-      <x:c r="H301" s="0" t="s">
-        <x:v>477</x:v>
-      </x:c>
-      <x:c r="I301" s="0" t="s"/>
-      <x:c r="J301" s="0" t="s"/>
-    </x:row>
-    <x:row r="302" spans="1:10">
-      <x:c r="A302" s="0" t="s"/>
-      <x:c r="B302" s="0" t="s"/>
-      <x:c r="C302" s="0" t="s"/>
-      <x:c r="D302" s="0" t="s"/>
-      <x:c r="E302" s="0" t="s"/>
-      <x:c r="F302" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G302" s="0" t="s">
-        <x:v>550</x:v>
-      </x:c>
-      <x:c r="H302" s="0" t="s">
-        <x:v>551</x:v>
-      </x:c>
-      <x:c r="I302" s="0" t="s"/>
-      <x:c r="J302" s="0" t="s"/>
-    </x:row>
-    <x:row r="303" spans="1:10">
-      <x:c r="A303" s="0" t="s">
-        <x:v>309</x:v>
-      </x:c>
-      <x:c r="B303" s="0" t="s">
-        <x:v>310</x:v>
-      </x:c>
-      <x:c r="C303" s="0" t="s">
-        <x:v>533</x:v>
-      </x:c>
-      <x:c r="D303" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E303" s="0" t="s"/>
-      <x:c r="F303" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G303" s="0" t="s">
-        <x:v>566</x:v>
-      </x:c>
-      <x:c r="H303" s="0" t="s">
-        <x:v>235</x:v>
-      </x:c>
-      <x:c r="I303" s="0" t="s"/>
-      <x:c r="J303" s="0" t="s"/>
-    </x:row>
-    <x:row r="304" spans="1:10">
-      <x:c r="A304" s="0" t="s"/>
-      <x:c r="B304" s="0" t="s"/>
-      <x:c r="C304" s="0" t="s"/>
-      <x:c r="D304" s="0" t="s"/>
-      <x:c r="E304" s="0" t="s"/>
-      <x:c r="F304" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G304" s="0" t="s">
-        <x:v>567</x:v>
-      </x:c>
-      <x:c r="H304" s="0" t="s">
-        <x:v>568</x:v>
-      </x:c>
-      <x:c r="I304" s="0" t="s"/>
-      <x:c r="J304" s="0" t="s"/>
-    </x:row>
-    <x:row r="305" spans="1:10">
-      <x:c r="A305" s="0" t="s"/>
-      <x:c r="B305" s="0" t="s"/>
-      <x:c r="C305" s="0" t="s"/>
-      <x:c r="D305" s="0" t="s"/>
-      <x:c r="E305" s="0" t="s"/>
-      <x:c r="F305" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G305" s="0" t="s">
-        <x:v>569</x:v>
-      </x:c>
-      <x:c r="H305" s="0" t="s">
-        <x:v>570</x:v>
-      </x:c>
-      <x:c r="I305" s="0" t="s"/>
-      <x:c r="J305" s="0" t="s"/>
-    </x:row>
-    <x:row r="306" spans="1:10">
-      <x:c r="A306" s="0" t="s">
-        <x:v>317</x:v>
-      </x:c>
-      <x:c r="B306" s="0" t="s">
-        <x:v>318</x:v>
-      </x:c>
-      <x:c r="C306" s="0" t="s">
-        <x:v>544</x:v>
-      </x:c>
-      <x:c r="D306" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E306" s="0" t="s"/>
-      <x:c r="F306" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G306" s="0" t="s">
-        <x:v>566</x:v>
-      </x:c>
-      <x:c r="H306" s="0" t="s">
-        <x:v>235</x:v>
-      </x:c>
-      <x:c r="I306" s="0" t="s"/>
-      <x:c r="J306" s="0" t="s"/>
-    </x:row>
-    <x:row r="307" spans="1:10">
-      <x:c r="A307" s="0" t="s"/>
-      <x:c r="B307" s="0" t="s"/>
-      <x:c r="C307" s="0" t="s"/>
-      <x:c r="D307" s="0" t="s"/>
-      <x:c r="E307" s="0" t="s"/>
-      <x:c r="F307" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G307" s="0" t="s">
-        <x:v>567</x:v>
-      </x:c>
-      <x:c r="H307" s="0" t="s">
-        <x:v>568</x:v>
-      </x:c>
-      <x:c r="I307" s="0" t="s"/>
-      <x:c r="J307" s="0" t="s"/>
-    </x:row>
-    <x:row r="308" spans="1:10">
-      <x:c r="A308" s="0" t="s"/>
-      <x:c r="B308" s="0" t="s"/>
-      <x:c r="C308" s="0" t="s"/>
-      <x:c r="D308" s="0" t="s"/>
-      <x:c r="E308" s="0" t="s"/>
-      <x:c r="F308" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G308" s="0" t="s">
-        <x:v>569</x:v>
-      </x:c>
-      <x:c r="H308" s="0" t="s">
-        <x:v>570</x:v>
-      </x:c>
-      <x:c r="I308" s="0" t="s"/>
-      <x:c r="J308" s="0" t="s"/>
-    </x:row>
-    <x:row r="309" spans="1:10">
-      <x:c r="A309" s="0" t="s">
-        <x:v>327</x:v>
-      </x:c>
-      <x:c r="B309" s="0" t="s">
-        <x:v>328</x:v>
-      </x:c>
-      <x:c r="C309" s="0" t="s">
-        <x:v>545</x:v>
-      </x:c>
-      <x:c r="D309" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E309" s="0" t="s"/>
-      <x:c r="F309" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G309" s="0" t="s">
-        <x:v>566</x:v>
-      </x:c>
-      <x:c r="H309" s="0" t="s">
-        <x:v>235</x:v>
-      </x:c>
-      <x:c r="I309" s="0" t="s"/>
-      <x:c r="J309" s="0" t="s"/>
-    </x:row>
-    <x:row r="310" spans="1:10">
-      <x:c r="A310" s="0" t="s"/>
-      <x:c r="B310" s="0" t="s"/>
-      <x:c r="C310" s="0" t="s"/>
-      <x:c r="D310" s="0" t="s"/>
-      <x:c r="E310" s="0" t="s"/>
-      <x:c r="F310" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G310" s="0" t="s">
-        <x:v>567</x:v>
-      </x:c>
-      <x:c r="H310" s="0" t="s">
-        <x:v>568</x:v>
-      </x:c>
-      <x:c r="I310" s="0" t="s"/>
-      <x:c r="J310" s="0" t="s"/>
-    </x:row>
-    <x:row r="311" spans="1:10">
-      <x:c r="A311" s="0" t="s"/>
-      <x:c r="B311" s="0" t="s"/>
-      <x:c r="C311" s="0" t="s"/>
-      <x:c r="D311" s="0" t="s"/>
-      <x:c r="E311" s="0" t="s"/>
-      <x:c r="F311" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G311" s="0" t="s">
-        <x:v>569</x:v>
-      </x:c>
-      <x:c r="H311" s="0" t="s">
-        <x:v>570</x:v>
-      </x:c>
-      <x:c r="I311" s="0" t="s"/>
-      <x:c r="J311" s="0" t="s"/>
-    </x:row>
-    <x:row r="312" spans="1:10">
-      <x:c r="A312" s="0" t="s">
-        <x:v>334</x:v>
-      </x:c>
-      <x:c r="B312" s="0" t="s">
-        <x:v>335</x:v>
-      </x:c>
-      <x:c r="C312" s="0" t="s">
-        <x:v>546</x:v>
-      </x:c>
-      <x:c r="D312" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E312" s="0" t="s"/>
-      <x:c r="F312" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G312" s="0" t="s">
-        <x:v>566</x:v>
-      </x:c>
-      <x:c r="H312" s="0" t="s">
-        <x:v>235</x:v>
-      </x:c>
-      <x:c r="I312" s="0" t="s"/>
-      <x:c r="J312" s="0" t="s"/>
-    </x:row>
-    <x:row r="313" spans="1:10">
-      <x:c r="A313" s="0" t="s"/>
-      <x:c r="B313" s="0" t="s"/>
-      <x:c r="C313" s="0" t="s"/>
-      <x:c r="D313" s="0" t="s"/>
-      <x:c r="E313" s="0" t="s"/>
-      <x:c r="F313" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G313" s="0" t="s">
-        <x:v>567</x:v>
-      </x:c>
-      <x:c r="H313" s="0" t="s">
-        <x:v>568</x:v>
-      </x:c>
-      <x:c r="I313" s="0" t="s"/>
-      <x:c r="J313" s="0" t="s"/>
-    </x:row>
-    <x:row r="314" spans="1:10">
-      <x:c r="A314" s="0" t="s"/>
-      <x:c r="B314" s="0" t="s"/>
-      <x:c r="C314" s="0" t="s"/>
-      <x:c r="D314" s="0" t="s"/>
-      <x:c r="E314" s="0" t="s"/>
-      <x:c r="F314" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G314" s="0" t="s">
-        <x:v>569</x:v>
-      </x:c>
-      <x:c r="H314" s="0" t="s">
-        <x:v>570</x:v>
-      </x:c>
-      <x:c r="I314" s="0" t="s"/>
-      <x:c r="J314" s="0" t="s"/>
-    </x:row>
-    <x:row r="315" spans="1:10">
-      <x:c r="A315" s="0" t="s">
-        <x:v>340</x:v>
-      </x:c>
-      <x:c r="B315" s="0" t="s">
-        <x:v>341</x:v>
-      </x:c>
-      <x:c r="C315" s="0" t="s">
-        <x:v>547</x:v>
-      </x:c>
-      <x:c r="D315" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E315" s="0" t="s"/>
-      <x:c r="F315" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G315" s="0" t="s">
-        <x:v>566</x:v>
-      </x:c>
-      <x:c r="H315" s="0" t="s">
-        <x:v>235</x:v>
-      </x:c>
-      <x:c r="I315" s="0" t="s"/>
-      <x:c r="J315" s="0" t="s"/>
-    </x:row>
-    <x:row r="316" spans="1:10">
-      <x:c r="A316" s="0" t="s"/>
-      <x:c r="B316" s="0" t="s"/>
-      <x:c r="C316" s="0" t="s"/>
-      <x:c r="D316" s="0" t="s"/>
-      <x:c r="E316" s="0" t="s"/>
-      <x:c r="F316" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G316" s="0" t="s">
-        <x:v>567</x:v>
-      </x:c>
-      <x:c r="H316" s="0" t="s">
-        <x:v>568</x:v>
-      </x:c>
-      <x:c r="I316" s="0" t="s"/>
-      <x:c r="J316" s="0" t="s"/>
-    </x:row>
-    <x:row r="317" spans="1:10">
-      <x:c r="A317" s="0" t="s"/>
-      <x:c r="B317" s="0" t="s"/>
-      <x:c r="C317" s="0" t="s"/>
-      <x:c r="D317" s="0" t="s"/>
-      <x:c r="E317" s="0" t="s"/>
-      <x:c r="F317" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G317" s="0" t="s">
-        <x:v>569</x:v>
-      </x:c>
-      <x:c r="H317" s="0" t="s">
-        <x:v>570</x:v>
-      </x:c>
-      <x:c r="I317" s="0" t="s"/>
-      <x:c r="J317" s="0" t="s"/>
-    </x:row>
-    <x:row r="318" spans="1:10">
-      <x:c r="A318" s="0" t="s">
-        <x:v>348</x:v>
-      </x:c>
-      <x:c r="B318" s="0" t="s">
-        <x:v>349</x:v>
-      </x:c>
-      <x:c r="C318" s="0" t="s">
-        <x:v>548</x:v>
-      </x:c>
-      <x:c r="D318" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E318" s="0" t="s"/>
-      <x:c r="F318" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G318" s="0" t="s">
-        <x:v>566</x:v>
-      </x:c>
-      <x:c r="H318" s="0" t="s">
-        <x:v>235</x:v>
-      </x:c>
-      <x:c r="I318" s="0" t="s"/>
-      <x:c r="J318" s="0" t="s"/>
-    </x:row>
-    <x:row r="319" spans="1:10">
-      <x:c r="A319" s="0" t="s"/>
-      <x:c r="B319" s="0" t="s"/>
-      <x:c r="C319" s="0" t="s"/>
-      <x:c r="D319" s="0" t="s"/>
-      <x:c r="E319" s="0" t="s"/>
-      <x:c r="F319" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G319" s="0" t="s">
-        <x:v>567</x:v>
-      </x:c>
-      <x:c r="H319" s="0" t="s">
-        <x:v>568</x:v>
-      </x:c>
-      <x:c r="I319" s="0" t="s"/>
-      <x:c r="J319" s="0" t="s"/>
-    </x:row>
-    <x:row r="320" spans="1:10">
-      <x:c r="A320" s="0" t="s"/>
-      <x:c r="B320" s="0" t="s"/>
-      <x:c r="C320" s="0" t="s"/>
-      <x:c r="D320" s="0" t="s"/>
-      <x:c r="E320" s="0" t="s"/>
-      <x:c r="F320" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G320" s="0" t="s">
-        <x:v>569</x:v>
-      </x:c>
-      <x:c r="H320" s="0" t="s">
-        <x:v>570</x:v>
-      </x:c>
-      <x:c r="I320" s="0" t="s"/>
-      <x:c r="J320" s="0" t="s"/>
-    </x:row>
-    <x:row r="321" spans="1:10">
-      <x:c r="A321" s="0" t="s">
-        <x:v>363</x:v>
-      </x:c>
-      <x:c r="B321" s="0" t="s">
-        <x:v>364</x:v>
-      </x:c>
-      <x:c r="C321" s="0" t="s">
-        <x:v>549</x:v>
-      </x:c>
-      <x:c r="D321" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E321" s="0" t="s"/>
-      <x:c r="F321" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G321" s="0" t="s">
-        <x:v>566</x:v>
-      </x:c>
-      <x:c r="H321" s="0" t="s">
-        <x:v>235</x:v>
-      </x:c>
-      <x:c r="I321" s="0" t="s"/>
-      <x:c r="J321" s="0" t="s"/>
-    </x:row>
-    <x:row r="322" spans="1:10">
-      <x:c r="A322" s="0" t="s"/>
-      <x:c r="B322" s="0" t="s"/>
-      <x:c r="C322" s="0" t="s"/>
-      <x:c r="D322" s="0" t="s"/>
-      <x:c r="E322" s="0" t="s"/>
-      <x:c r="F322" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G322" s="0" t="s">
-        <x:v>567</x:v>
-      </x:c>
-      <x:c r="H322" s="0" t="s">
-        <x:v>568</x:v>
-      </x:c>
-      <x:c r="I322" s="0" t="s"/>
-      <x:c r="J322" s="0" t="s"/>
-    </x:row>
-    <x:row r="323" spans="1:10">
-      <x:c r="A323" s="0" t="s"/>
-      <x:c r="B323" s="0" t="s"/>
-      <x:c r="C323" s="0" t="s"/>
-      <x:c r="D323" s="0" t="s"/>
-      <x:c r="E323" s="0" t="s"/>
-      <x:c r="F323" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G323" s="0" t="s">
-        <x:v>569</x:v>
-      </x:c>
-      <x:c r="H323" s="0" t="s">
-        <x:v>570</x:v>
-      </x:c>
-      <x:c r="I323" s="0" t="s"/>
-      <x:c r="J323" s="0" t="s"/>
-    </x:row>
-    <x:row r="324" spans="1:10">
-      <x:c r="A324" s="0" t="s">
-        <x:v>370</x:v>
-      </x:c>
-      <x:c r="B324" s="0" t="s">
-        <x:v>371</x:v>
-      </x:c>
-      <x:c r="C324" s="0" t="s">
-        <x:v>552</x:v>
-      </x:c>
-      <x:c r="D324" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E324" s="0" t="s"/>
-      <x:c r="F324" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G324" s="0" t="s">
-        <x:v>566</x:v>
-      </x:c>
-      <x:c r="H324" s="0" t="s">
-        <x:v>235</x:v>
-      </x:c>
-      <x:c r="I324" s="0" t="s"/>
-      <x:c r="J324" s="0" t="s"/>
-    </x:row>
-    <x:row r="325" spans="1:10">
-      <x:c r="A325" s="0" t="s"/>
-      <x:c r="B325" s="0" t="s"/>
-      <x:c r="C325" s="0" t="s"/>
-      <x:c r="D325" s="0" t="s"/>
-      <x:c r="E325" s="0" t="s"/>
-      <x:c r="F325" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G325" s="0" t="s">
-        <x:v>567</x:v>
-      </x:c>
-      <x:c r="H325" s="0" t="s">
-        <x:v>568</x:v>
-      </x:c>
-      <x:c r="I325" s="0" t="s"/>
-      <x:c r="J325" s="0" t="s"/>
-    </x:row>
-    <x:row r="326" spans="1:10">
-      <x:c r="A326" s="0" t="s"/>
-      <x:c r="B326" s="0" t="s"/>
-      <x:c r="C326" s="0" t="s"/>
-      <x:c r="D326" s="0" t="s"/>
-      <x:c r="E326" s="0" t="s"/>
-      <x:c r="F326" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G326" s="0" t="s">
-        <x:v>569</x:v>
-      </x:c>
-      <x:c r="H326" s="0" t="s">
-        <x:v>570</x:v>
-      </x:c>
-      <x:c r="I326" s="0" t="s"/>
-      <x:c r="J326" s="0" t="s"/>
-    </x:row>
-    <x:row r="327" spans="1:10">
-      <x:c r="A327" s="0" t="s">
-        <x:v>376</x:v>
-      </x:c>
-      <x:c r="B327" s="0" t="s">
-        <x:v>377</x:v>
-      </x:c>
-      <x:c r="C327" s="0" t="s">
-        <x:v>553</x:v>
-      </x:c>
-      <x:c r="D327" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E327" s="0" t="s"/>
-      <x:c r="F327" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G327" s="0" t="s">
-        <x:v>566</x:v>
-      </x:c>
-      <x:c r="H327" s="0" t="s">
-        <x:v>235</x:v>
-      </x:c>
-      <x:c r="I327" s="0" t="s"/>
-      <x:c r="J327" s="0" t="s"/>
-    </x:row>
-    <x:row r="328" spans="1:10">
-      <x:c r="A328" s="0" t="s"/>
-      <x:c r="B328" s="0" t="s"/>
-      <x:c r="C328" s="0" t="s"/>
-      <x:c r="D328" s="0" t="s"/>
-      <x:c r="E328" s="0" t="s"/>
-      <x:c r="F328" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G328" s="0" t="s">
-        <x:v>567</x:v>
-      </x:c>
-      <x:c r="H328" s="0" t="s">
-        <x:v>568</x:v>
-      </x:c>
-      <x:c r="I328" s="0" t="s"/>
-      <x:c r="J328" s="0" t="s"/>
-    </x:row>
-    <x:row r="329" spans="1:10">
-      <x:c r="A329" s="0" t="s"/>
-      <x:c r="B329" s="0" t="s"/>
-      <x:c r="C329" s="0" t="s"/>
-      <x:c r="D329" s="0" t="s"/>
-      <x:c r="E329" s="0" t="s"/>
-      <x:c r="F329" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G329" s="0" t="s">
-        <x:v>569</x:v>
-      </x:c>
-      <x:c r="H329" s="0" t="s">
-        <x:v>570</x:v>
-      </x:c>
-      <x:c r="I329" s="0" t="s"/>
-      <x:c r="J329" s="0" t="s"/>
-    </x:row>
-    <x:row r="330" spans="1:10">
-      <x:c r="A330" s="0" t="s">
-        <x:v>384</x:v>
-      </x:c>
-      <x:c r="B330" s="0" t="s">
-        <x:v>385</x:v>
-      </x:c>
-      <x:c r="C330" s="0" t="s">
-        <x:v>554</x:v>
-      </x:c>
-      <x:c r="D330" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E330" s="0" t="s"/>
-      <x:c r="F330" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G330" s="0" t="s">
-        <x:v>566</x:v>
-      </x:c>
-      <x:c r="H330" s="0" t="s">
-        <x:v>235</x:v>
-      </x:c>
-      <x:c r="I330" s="0" t="s"/>
-      <x:c r="J330" s="0" t="s"/>
-    </x:row>
-    <x:row r="331" spans="1:10">
-      <x:c r="A331" s="0" t="s"/>
-      <x:c r="B331" s="0" t="s"/>
-      <x:c r="C331" s="0" t="s"/>
-      <x:c r="D331" s="0" t="s"/>
-      <x:c r="E331" s="0" t="s"/>
-      <x:c r="F331" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G331" s="0" t="s">
-        <x:v>567</x:v>
-      </x:c>
-      <x:c r="H331" s="0" t="s">
-        <x:v>568</x:v>
-      </x:c>
-      <x:c r="I331" s="0" t="s"/>
-      <x:c r="J331" s="0" t="s"/>
-    </x:row>
-    <x:row r="332" spans="1:10">
-      <x:c r="A332" s="0" t="s"/>
-      <x:c r="B332" s="0" t="s"/>
-      <x:c r="C332" s="0" t="s"/>
-      <x:c r="D332" s="0" t="s"/>
-      <x:c r="E332" s="0" t="s"/>
-      <x:c r="F332" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G332" s="0" t="s">
-        <x:v>569</x:v>
-      </x:c>
-      <x:c r="H332" s="0" t="s">
-        <x:v>570</x:v>
-      </x:c>
-      <x:c r="I332" s="0" t="s"/>
-      <x:c r="J332" s="0" t="s"/>
-    </x:row>
-    <x:row r="333" spans="1:10">
-      <x:c r="A333" s="0" t="s">
-        <x:v>394</x:v>
-      </x:c>
-      <x:c r="B333" s="0" t="s">
-        <x:v>395</x:v>
-      </x:c>
-      <x:c r="C333" s="0" t="s">
-        <x:v>555</x:v>
-      </x:c>
-      <x:c r="D333" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E333" s="0" t="s"/>
-      <x:c r="F333" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G333" s="0" t="s">
-        <x:v>566</x:v>
-      </x:c>
-      <x:c r="H333" s="0" t="s">
-        <x:v>235</x:v>
-      </x:c>
-      <x:c r="I333" s="0" t="s"/>
-      <x:c r="J333" s="0" t="s"/>
-    </x:row>
-    <x:row r="334" spans="1:10">
-      <x:c r="A334" s="0" t="s"/>
-      <x:c r="B334" s="0" t="s"/>
-      <x:c r="C334" s="0" t="s"/>
-      <x:c r="D334" s="0" t="s"/>
-      <x:c r="E334" s="0" t="s"/>
-      <x:c r="F334" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G334" s="0" t="s">
-        <x:v>567</x:v>
-      </x:c>
-      <x:c r="H334" s="0" t="s">
-        <x:v>568</x:v>
-      </x:c>
-      <x:c r="I334" s="0" t="s"/>
-      <x:c r="J334" s="0" t="s"/>
-    </x:row>
-    <x:row r="335" spans="1:10">
-      <x:c r="A335" s="0" t="s"/>
-      <x:c r="B335" s="0" t="s"/>
-      <x:c r="C335" s="0" t="s"/>
-      <x:c r="D335" s="0" t="s"/>
-      <x:c r="E335" s="0" t="s"/>
-      <x:c r="F335" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G335" s="0" t="s">
-        <x:v>569</x:v>
-      </x:c>
-      <x:c r="H335" s="0" t="s">
-        <x:v>570</x:v>
-      </x:c>
-      <x:c r="I335" s="0" t="s"/>
-      <x:c r="J335" s="0" t="s"/>
-    </x:row>
-    <x:row r="336" spans="1:10">
-      <x:c r="A336" s="0" t="s">
-        <x:v>401</x:v>
-      </x:c>
-      <x:c r="B336" s="0" t="s">
-        <x:v>402</x:v>
-      </x:c>
-      <x:c r="C336" s="0" t="s">
-        <x:v>556</x:v>
-      </x:c>
-      <x:c r="D336" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E336" s="0" t="s"/>
-      <x:c r="F336" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G336" s="0" t="s">
-        <x:v>566</x:v>
-      </x:c>
-      <x:c r="H336" s="0" t="s">
-        <x:v>235</x:v>
-      </x:c>
-      <x:c r="I336" s="0" t="s"/>
-      <x:c r="J336" s="0" t="s"/>
-    </x:row>
-    <x:row r="337" spans="1:10">
-      <x:c r="A337" s="0" t="s"/>
-      <x:c r="B337" s="0" t="s"/>
-      <x:c r="C337" s="0" t="s"/>
-      <x:c r="D337" s="0" t="s"/>
-      <x:c r="E337" s="0" t="s"/>
-      <x:c r="F337" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G337" s="0" t="s">
-        <x:v>567</x:v>
-      </x:c>
-      <x:c r="H337" s="0" t="s">
-        <x:v>568</x:v>
-      </x:c>
-      <x:c r="I337" s="0" t="s"/>
-      <x:c r="J337" s="0" t="s"/>
-    </x:row>
-    <x:row r="338" spans="1:10">
-      <x:c r="A338" s="0" t="s"/>
-      <x:c r="B338" s="0" t="s"/>
-      <x:c r="C338" s="0" t="s"/>
-      <x:c r="D338" s="0" t="s"/>
-      <x:c r="E338" s="0" t="s"/>
-      <x:c r="F338" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G338" s="0" t="s">
-        <x:v>569</x:v>
-      </x:c>
-      <x:c r="H338" s="0" t="s">
-        <x:v>570</x:v>
-      </x:c>
-      <x:c r="I338" s="0" t="s"/>
-      <x:c r="J338" s="0" t="s"/>
-    </x:row>
-    <x:row r="339" spans="1:10">
-      <x:c r="A339" s="0" t="s">
-        <x:v>407</x:v>
-      </x:c>
-      <x:c r="B339" s="0" t="s">
-        <x:v>408</x:v>
-      </x:c>
-      <x:c r="C339" s="0" t="s">
-        <x:v>557</x:v>
-      </x:c>
-      <x:c r="D339" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E339" s="0" t="s"/>
-      <x:c r="F339" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G339" s="0" t="s">
-        <x:v>566</x:v>
-      </x:c>
-      <x:c r="H339" s="0" t="s">
-        <x:v>235</x:v>
-      </x:c>
-      <x:c r="I339" s="0" t="s"/>
-      <x:c r="J339" s="0" t="s"/>
-    </x:row>
-    <x:row r="340" spans="1:10">
-      <x:c r="A340" s="0" t="s"/>
-      <x:c r="B340" s="0" t="s"/>
-      <x:c r="C340" s="0" t="s"/>
-      <x:c r="D340" s="0" t="s"/>
-      <x:c r="E340" s="0" t="s"/>
-      <x:c r="F340" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G340" s="0" t="s">
-        <x:v>567</x:v>
-      </x:c>
-      <x:c r="H340" s="0" t="s">
-        <x:v>568</x:v>
-      </x:c>
-      <x:c r="I340" s="0" t="s"/>
-      <x:c r="J340" s="0" t="s"/>
-    </x:row>
-    <x:row r="341" spans="1:10">
-      <x:c r="A341" s="0" t="s"/>
-      <x:c r="B341" s="0" t="s"/>
-      <x:c r="C341" s="0" t="s"/>
-      <x:c r="D341" s="0" t="s"/>
-      <x:c r="E341" s="0" t="s"/>
-      <x:c r="F341" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G341" s="0" t="s">
-        <x:v>569</x:v>
-      </x:c>
-      <x:c r="H341" s="0" t="s">
-        <x:v>570</x:v>
-      </x:c>
-      <x:c r="I341" s="0" t="s"/>
-      <x:c r="J341" s="0" t="s"/>
-    </x:row>
-    <x:row r="342" spans="1:10">
-      <x:c r="A342" s="0" t="s">
-        <x:v>415</x:v>
-      </x:c>
-      <x:c r="B342" s="0" t="s">
-        <x:v>416</x:v>
-      </x:c>
-      <x:c r="C342" s="0" t="s">
-        <x:v>558</x:v>
-      </x:c>
-      <x:c r="D342" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E342" s="0" t="s"/>
-      <x:c r="F342" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G342" s="0" t="s">
-        <x:v>566</x:v>
-      </x:c>
-      <x:c r="H342" s="0" t="s">
-        <x:v>235</x:v>
-      </x:c>
-      <x:c r="I342" s="0" t="s"/>
-      <x:c r="J342" s="0" t="s"/>
-    </x:row>
-    <x:row r="343" spans="1:10">
-      <x:c r="A343" s="0" t="s"/>
-      <x:c r="B343" s="0" t="s"/>
-      <x:c r="C343" s="0" t="s"/>
-      <x:c r="D343" s="0" t="s"/>
-      <x:c r="E343" s="0" t="s"/>
-      <x:c r="F343" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G343" s="0" t="s">
-        <x:v>567</x:v>
-      </x:c>
-      <x:c r="H343" s="0" t="s">
-        <x:v>568</x:v>
-      </x:c>
-      <x:c r="I343" s="0" t="s"/>
-      <x:c r="J343" s="0" t="s"/>
-    </x:row>
-    <x:row r="344" spans="1:10">
-      <x:c r="A344" s="0" t="s"/>
-      <x:c r="B344" s="0" t="s"/>
-      <x:c r="C344" s="0" t="s"/>
-      <x:c r="D344" s="0" t="s"/>
-      <x:c r="E344" s="0" t="s"/>
-      <x:c r="F344" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G344" s="0" t="s">
-        <x:v>569</x:v>
-      </x:c>
-      <x:c r="H344" s="0" t="s">
-        <x:v>570</x:v>
-      </x:c>
-      <x:c r="I344" s="0" t="s"/>
-      <x:c r="J344" s="0" t="s"/>
-    </x:row>
-    <x:row r="345" spans="1:10">
-      <x:c r="A345" s="0" t="s">
-        <x:v>422</x:v>
-      </x:c>
-      <x:c r="B345" s="0" t="s">
-        <x:v>423</x:v>
-      </x:c>
-      <x:c r="C345" s="0" t="s">
-        <x:v>559</x:v>
-      </x:c>
-      <x:c r="D345" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E345" s="0" t="s"/>
-      <x:c r="F345" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G345" s="0" t="s">
-        <x:v>566</x:v>
-      </x:c>
-      <x:c r="H345" s="0" t="s">
-        <x:v>235</x:v>
-      </x:c>
-      <x:c r="I345" s="0" t="s"/>
-      <x:c r="J345" s="0" t="s"/>
-    </x:row>
-    <x:row r="346" spans="1:10">
-      <x:c r="A346" s="0" t="s"/>
-      <x:c r="B346" s="0" t="s"/>
-      <x:c r="C346" s="0" t="s"/>
-      <x:c r="D346" s="0" t="s"/>
-      <x:c r="E346" s="0" t="s"/>
-      <x:c r="F346" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G346" s="0" t="s">
-        <x:v>567</x:v>
-      </x:c>
-      <x:c r="H346" s="0" t="s">
-        <x:v>568</x:v>
-      </x:c>
-      <x:c r="I346" s="0" t="s"/>
-      <x:c r="J346" s="0" t="s"/>
-    </x:row>
-    <x:row r="347" spans="1:10">
-      <x:c r="A347" s="0" t="s"/>
-      <x:c r="B347" s="0" t="s"/>
-      <x:c r="C347" s="0" t="s"/>
-      <x:c r="D347" s="0" t="s"/>
-      <x:c r="E347" s="0" t="s"/>
-      <x:c r="F347" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G347" s="0" t="s">
-        <x:v>569</x:v>
-      </x:c>
-      <x:c r="H347" s="0" t="s">
-        <x:v>570</x:v>
-      </x:c>
-      <x:c r="I347" s="0" t="s"/>
-      <x:c r="J347" s="0" t="s"/>
-    </x:row>
-    <x:row r="348" spans="1:10">
-      <x:c r="A348" s="0" t="s">
-        <x:v>429</x:v>
-      </x:c>
-      <x:c r="B348" s="0" t="s">
-        <x:v>430</x:v>
-      </x:c>
-      <x:c r="C348" s="0" t="s">
-        <x:v>560</x:v>
-      </x:c>
-      <x:c r="D348" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E348" s="0" t="s"/>
-      <x:c r="F348" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G348" s="0" t="s">
-        <x:v>566</x:v>
-      </x:c>
-      <x:c r="H348" s="0" t="s">
-        <x:v>235</x:v>
-      </x:c>
-      <x:c r="I348" s="0" t="s"/>
-      <x:c r="J348" s="0" t="s"/>
-    </x:row>
-    <x:row r="349" spans="1:10">
-      <x:c r="A349" s="0" t="s"/>
-      <x:c r="B349" s="0" t="s"/>
-      <x:c r="C349" s="0" t="s"/>
-      <x:c r="D349" s="0" t="s"/>
-      <x:c r="E349" s="0" t="s"/>
-      <x:c r="F349" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G349" s="0" t="s">
-        <x:v>567</x:v>
-      </x:c>
-      <x:c r="H349" s="0" t="s">
-        <x:v>568</x:v>
-      </x:c>
-      <x:c r="I349" s="0" t="s"/>
-      <x:c r="J349" s="0" t="s"/>
-    </x:row>
-    <x:row r="350" spans="1:10">
-      <x:c r="A350" s="0" t="s"/>
-      <x:c r="B350" s="0" t="s"/>
-      <x:c r="C350" s="0" t="s"/>
-      <x:c r="D350" s="0" t="s"/>
-      <x:c r="E350" s="0" t="s"/>
-      <x:c r="F350" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G350" s="0" t="s">
-        <x:v>569</x:v>
-      </x:c>
-      <x:c r="H350" s="0" t="s">
-        <x:v>570</x:v>
-      </x:c>
-      <x:c r="I350" s="0" t="s"/>
-      <x:c r="J350" s="0" t="s"/>
-    </x:row>
-    <x:row r="351" spans="1:10">
-      <x:c r="A351" s="0" t="s">
-        <x:v>435</x:v>
-      </x:c>
-      <x:c r="B351" s="0" t="s">
-        <x:v>436</x:v>
-      </x:c>
-      <x:c r="C351" s="0" t="s">
-        <x:v>561</x:v>
-      </x:c>
-      <x:c r="D351" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E351" s="0" t="s"/>
-      <x:c r="F351" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G351" s="0" t="s">
-        <x:v>566</x:v>
-      </x:c>
-      <x:c r="H351" s="0" t="s">
-        <x:v>235</x:v>
-      </x:c>
-      <x:c r="I351" s="0" t="s"/>
-      <x:c r="J351" s="0" t="s"/>
-    </x:row>
-    <x:row r="352" spans="1:10">
-      <x:c r="A352" s="0" t="s"/>
-      <x:c r="B352" s="0" t="s"/>
-      <x:c r="C352" s="0" t="s"/>
-      <x:c r="D352" s="0" t="s"/>
-      <x:c r="E352" s="0" t="s"/>
-      <x:c r="F352" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G352" s="0" t="s">
-        <x:v>567</x:v>
-      </x:c>
-      <x:c r="H352" s="0" t="s">
-        <x:v>568</x:v>
-      </x:c>
-      <x:c r="I352" s="0" t="s"/>
-      <x:c r="J352" s="0" t="s"/>
-    </x:row>
-    <x:row r="353" spans="1:10">
-      <x:c r="A353" s="0" t="s"/>
-      <x:c r="B353" s="0" t="s"/>
-      <x:c r="C353" s="0" t="s"/>
-      <x:c r="D353" s="0" t="s"/>
-      <x:c r="E353" s="0" t="s"/>
-      <x:c r="F353" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G353" s="0" t="s">
-        <x:v>569</x:v>
-      </x:c>
-      <x:c r="H353" s="0" t="s">
-        <x:v>570</x:v>
-      </x:c>
-      <x:c r="I353" s="0" t="s"/>
-      <x:c r="J353" s="0" t="s"/>
-    </x:row>
-    <x:row r="354" spans="1:10">
-      <x:c r="A354" s="0" t="s">
-        <x:v>443</x:v>
-      </x:c>
-      <x:c r="B354" s="0" t="s">
-        <x:v>444</x:v>
-      </x:c>
-      <x:c r="C354" s="0" t="s">
-        <x:v>562</x:v>
-      </x:c>
-      <x:c r="D354" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E354" s="0" t="s"/>
-      <x:c r="F354" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G354" s="0" t="s">
-        <x:v>566</x:v>
-      </x:c>
-      <x:c r="H354" s="0" t="s">
-        <x:v>235</x:v>
-      </x:c>
-      <x:c r="I354" s="0" t="s"/>
-      <x:c r="J354" s="0" t="s"/>
-    </x:row>
-    <x:row r="355" spans="1:10">
-      <x:c r="A355" s="0" t="s"/>
-      <x:c r="B355" s="0" t="s"/>
-      <x:c r="C355" s="0" t="s"/>
-      <x:c r="D355" s="0" t="s"/>
-      <x:c r="E355" s="0" t="s"/>
-      <x:c r="F355" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G355" s="0" t="s">
-        <x:v>567</x:v>
-      </x:c>
-      <x:c r="H355" s="0" t="s">
-        <x:v>568</x:v>
-      </x:c>
-      <x:c r="I355" s="0" t="s"/>
-      <x:c r="J355" s="0" t="s"/>
-    </x:row>
-    <x:row r="356" spans="1:10">
-      <x:c r="A356" s="0" t="s"/>
-      <x:c r="B356" s="0" t="s"/>
-      <x:c r="C356" s="0" t="s"/>
-      <x:c r="D356" s="0" t="s"/>
-      <x:c r="E356" s="0" t="s"/>
-      <x:c r="F356" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G356" s="0" t="s">
-        <x:v>569</x:v>
-      </x:c>
-      <x:c r="H356" s="0" t="s">
-        <x:v>570</x:v>
-      </x:c>
-      <x:c r="I356" s="0" t="s"/>
-      <x:c r="J356" s="0" t="s"/>
-    </x:row>
-    <x:row r="357" spans="1:10">
-      <x:c r="A357" s="0" t="s">
-        <x:v>453</x:v>
-      </x:c>
-      <x:c r="B357" s="0" t="s">
-        <x:v>454</x:v>
-      </x:c>
-      <x:c r="C357" s="0" t="s">
-        <x:v>563</x:v>
-      </x:c>
-      <x:c r="D357" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E357" s="0" t="s"/>
-      <x:c r="F357" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G357" s="0" t="s">
-        <x:v>566</x:v>
-      </x:c>
-      <x:c r="H357" s="0" t="s">
-        <x:v>235</x:v>
-      </x:c>
-      <x:c r="I357" s="0" t="s"/>
-      <x:c r="J357" s="0" t="s"/>
-    </x:row>
-    <x:row r="358" spans="1:10">
-      <x:c r="A358" s="0" t="s"/>
-      <x:c r="B358" s="0" t="s"/>
-      <x:c r="C358" s="0" t="s"/>
-      <x:c r="D358" s="0" t="s"/>
-      <x:c r="E358" s="0" t="s"/>
-      <x:c r="F358" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G358" s="0" t="s">
-        <x:v>567</x:v>
-      </x:c>
-      <x:c r="H358" s="0" t="s">
-        <x:v>568</x:v>
-      </x:c>
-      <x:c r="I358" s="0" t="s"/>
-      <x:c r="J358" s="0" t="s"/>
-    </x:row>
-    <x:row r="359" spans="1:10">
-      <x:c r="A359" s="0" t="s"/>
-      <x:c r="B359" s="0" t="s"/>
-      <x:c r="C359" s="0" t="s"/>
-      <x:c r="D359" s="0" t="s"/>
-      <x:c r="E359" s="0" t="s"/>
-      <x:c r="F359" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G359" s="0" t="s">
-        <x:v>569</x:v>
-      </x:c>
-      <x:c r="H359" s="0" t="s">
-        <x:v>570</x:v>
-      </x:c>
-      <x:c r="I359" s="0" t="s"/>
-      <x:c r="J359" s="0" t="s"/>
-    </x:row>
-    <x:row r="360" spans="1:10">
-      <x:c r="A360" s="0" t="s">
-        <x:v>460</x:v>
-      </x:c>
-      <x:c r="B360" s="0" t="s">
-        <x:v>461</x:v>
-      </x:c>
-      <x:c r="C360" s="0" t="s">
-        <x:v>564</x:v>
-      </x:c>
-      <x:c r="D360" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E360" s="0" t="s"/>
-      <x:c r="F360" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G360" s="0" t="s">
-        <x:v>566</x:v>
-      </x:c>
-      <x:c r="H360" s="0" t="s">
-        <x:v>235</x:v>
-      </x:c>
-      <x:c r="I360" s="0" t="s"/>
-      <x:c r="J360" s="0" t="s"/>
-    </x:row>
-    <x:row r="361" spans="1:10">
-      <x:c r="A361" s="0" t="s"/>
-      <x:c r="B361" s="0" t="s"/>
-      <x:c r="C361" s="0" t="s"/>
-      <x:c r="D361" s="0" t="s"/>
-      <x:c r="E361" s="0" t="s"/>
-      <x:c r="F361" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G361" s="0" t="s">
-        <x:v>567</x:v>
-      </x:c>
-      <x:c r="H361" s="0" t="s">
-        <x:v>568</x:v>
-      </x:c>
-      <x:c r="I361" s="0" t="s"/>
-      <x:c r="J361" s="0" t="s"/>
-    </x:row>
-    <x:row r="362" spans="1:10">
-      <x:c r="A362" s="0" t="s"/>
-      <x:c r="B362" s="0" t="s"/>
-      <x:c r="C362" s="0" t="s"/>
-      <x:c r="D362" s="0" t="s"/>
-      <x:c r="E362" s="0" t="s"/>
-      <x:c r="F362" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G362" s="0" t="s">
-        <x:v>569</x:v>
-      </x:c>
-      <x:c r="H362" s="0" t="s">
-        <x:v>570</x:v>
-      </x:c>
-      <x:c r="I362" s="0" t="s"/>
-      <x:c r="J362" s="0" t="s"/>
-    </x:row>
-    <x:row r="363" spans="1:10">
-      <x:c r="A363" s="0" t="s">
-        <x:v>466</x:v>
-      </x:c>
-      <x:c r="B363" s="0" t="s">
-        <x:v>467</x:v>
-      </x:c>
-      <x:c r="C363" s="0" t="s">
-        <x:v>565</x:v>
-      </x:c>
-      <x:c r="D363" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E363" s="0" t="s"/>
-      <x:c r="F363" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G363" s="0" t="s">
-        <x:v>566</x:v>
-      </x:c>
-      <x:c r="H363" s="0" t="s">
-        <x:v>235</x:v>
-      </x:c>
-      <x:c r="I363" s="0" t="s"/>
-      <x:c r="J363" s="0" t="s"/>
-    </x:row>
-    <x:row r="364" spans="1:10">
-      <x:c r="A364" s="0" t="s"/>
-      <x:c r="B364" s="0" t="s"/>
-      <x:c r="C364" s="0" t="s"/>
-      <x:c r="D364" s="0" t="s"/>
-      <x:c r="E364" s="0" t="s"/>
-      <x:c r="F364" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G364" s="0" t="s">
-        <x:v>567</x:v>
-      </x:c>
-      <x:c r="H364" s="0" t="s">
-        <x:v>568</x:v>
-      </x:c>
-      <x:c r="I364" s="0" t="s"/>
-      <x:c r="J364" s="0" t="s"/>
-    </x:row>
-    <x:row r="365" spans="1:10">
-      <x:c r="A365" s="0" t="s"/>
-      <x:c r="B365" s="0" t="s"/>
-      <x:c r="C365" s="0" t="s"/>
-      <x:c r="D365" s="0" t="s"/>
-      <x:c r="E365" s="0" t="s"/>
-      <x:c r="F365" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G365" s="0" t="s">
-        <x:v>569</x:v>
-      </x:c>
-      <x:c r="H365" s="0" t="s">
-        <x:v>570</x:v>
-      </x:c>
-      <x:c r="I365" s="0" t="s"/>
-      <x:c r="J365" s="0" t="s"/>
-    </x:row>
-    <x:row r="366" spans="1:10">
-      <x:c r="A366" s="0" t="s">
-        <x:v>571</x:v>
-      </x:c>
-      <x:c r="B366" s="0" t="s">
-        <x:v>572</x:v>
-      </x:c>
-      <x:c r="C366" s="0" t="s">
-        <x:v>573</x:v>
-      </x:c>
-      <x:c r="D366" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E366" s="0" t="s"/>
-      <x:c r="F366" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G366" s="0" t="s">
-        <x:v>566</x:v>
-      </x:c>
-      <x:c r="H366" s="0" t="s">
-        <x:v>235</x:v>
-      </x:c>
-      <x:c r="I366" s="0" t="s"/>
-      <x:c r="J366" s="0" t="s"/>
-    </x:row>
-    <x:row r="367" spans="1:10">
-      <x:c r="A367" s="0" t="s"/>
-      <x:c r="B367" s="0" t="s"/>
-      <x:c r="C367" s="0" t="s"/>
-      <x:c r="D367" s="0" t="s"/>
-      <x:c r="E367" s="0" t="s"/>
-      <x:c r="F367" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G367" s="0" t="s">
-        <x:v>567</x:v>
-      </x:c>
-      <x:c r="H367" s="0" t="s">
-        <x:v>568</x:v>
-      </x:c>
-      <x:c r="I367" s="0" t="s"/>
-      <x:c r="J367" s="0" t="s"/>
-    </x:row>
-    <x:row r="368" spans="1:10">
-      <x:c r="A368" s="0" t="s"/>
-      <x:c r="B368" s="0" t="s"/>
-      <x:c r="C368" s="0" t="s"/>
-      <x:c r="D368" s="0" t="s"/>
-      <x:c r="E368" s="0" t="s"/>
-      <x:c r="F368" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G368" s="0" t="s">
-        <x:v>569</x:v>
-      </x:c>
-      <x:c r="H368" s="0" t="s">
-        <x:v>570</x:v>
-      </x:c>
-      <x:c r="I368" s="0" t="s"/>
-      <x:c r="J368" s="0" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
